--- a/registry_map.xlsx
+++ b/registry_map.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1091">
   <si>
     <t>circonscription</t>
   </si>
@@ -38,18 +38,18 @@
     <t>electors</t>
   </si>
   <si>
+    <t>electeurs</t>
+  </si>
+  <si>
     <t>map_url</t>
   </si>
   <si>
-    <t>electeurs</t>
+    <t>file_name</t>
   </si>
   <si>
     <t>CIRCONSCRIPTION 1</t>
   </si>
   <si>
-    <t>file_name</t>
-  </si>
-  <si>
     <t>Grand River North West and Port Louis West</t>
   </si>
   <si>
@@ -71,9 +71,15 @@
     <t>Raoul Rivet GS</t>
   </si>
   <si>
+    <t>AA</t>
+  </si>
+  <si>
     <t>02 Jeewa Najiyah Nuha Cir No 2.jpg</t>
   </si>
   <si>
+    <t>Xavier Christian Barbe GS</t>
+  </si>
+  <si>
     <t>Port Louis Maritime and Port Louis East</t>
   </si>
   <si>
@@ -83,10 +89,7 @@
     <t>Jean Lebrun GS</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>Xavier Christian Barbe GS</t>
+    <t>https://goo.gl/maps/82ciAm5qX8WAL9bz8</t>
   </si>
   <si>
     <t>03 Manrakhan Mehdi shakeel Cir No 3.jpg</t>
@@ -98,9 +101,6 @@
     <t>DUNPUTH Purnima</t>
   </si>
   <si>
-    <t>https://goo.gl/maps/82ciAm5qX8WAL9bz8</t>
-  </si>
-  <si>
     <t>Nicolay GS</t>
   </si>
   <si>
@@ -173,27 +173,27 @@
     <t>NAGHEE REDDY Kritananda</t>
   </si>
   <si>
+    <t>AAB</t>
+  </si>
+  <si>
     <t>Ramnarain Roy GS</t>
   </si>
   <si>
-    <t>AAB</t>
-  </si>
-  <si>
     <t>New Pailles GS</t>
   </si>
   <si>
     <t>10 Naghee Reddy Cir No 10.jpg</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/R7SrN8dGxyFhcJFJA</t>
+  </si>
+  <si>
     <t>Vieux Grand Port and Rose Belle</t>
   </si>
   <si>
     <t>DAUHOO Nadjiyya</t>
   </si>
   <si>
-    <t>https://goo.gl/maps/R7SrN8dGxyFhcJFJA</t>
-  </si>
-  <si>
     <t>Nouvelle France</t>
   </si>
   <si>
@@ -224,15 +224,24 @@
     <t>13 Beeharry Mahesh cir No 13.jpg</t>
   </si>
   <si>
+    <t>AAC</t>
+  </si>
+  <si>
     <t>Savanne and Black River</t>
   </si>
   <si>
+    <t>RISHI DAYANAND INSTITUTE</t>
+  </si>
+  <si>
     <t>NEEROOA M. I. Azam</t>
   </si>
   <si>
     <t>New Bambous GS</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/AzoUFXPT6jYXBdg3A</t>
+  </si>
+  <si>
     <t>14  Neerooa Mohamed Ismeazam cir No 14.jpg</t>
   </si>
   <si>
@@ -266,21 +275,12 @@
     <t>RAMPHUL Sharma</t>
   </si>
   <si>
-    <t>AAC</t>
-  </si>
-  <si>
     <t>James Toolsy GS</t>
   </si>
   <si>
-    <t>RISHI DAYANAND INSTITUTE</t>
-  </si>
-  <si>
     <t>17 Ramphul sharma Cir No 17.jpg</t>
   </si>
   <si>
-    <t>https://goo.gl/maps/AzoUFXPT6jYXBdg3A</t>
-  </si>
-  <si>
     <t>Belle Rose and Quatre Bornes</t>
   </si>
   <si>
@@ -293,12 +293,21 @@
     <t>18 Janoo Jaunbocus Bibi Razia Cir No 18.jpg</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Richelieu GS</t>
+  </si>
+  <si>
     <t>Stanley and Rose Hill</t>
   </si>
   <si>
     <t>MOORGHEN Kevin</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/stb1g6RsTWhTt3PY7</t>
+  </si>
+  <si>
     <t>Notre Dame des Victoires RCA S</t>
   </si>
   <si>
@@ -329,15 +338,6 @@
     <t>21 Green Jokhoo carol cir no 21.jpg</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Richelieu GS</t>
-  </si>
-  <si>
-    <t>https://goo.gl/maps/stb1g6RsTWhTt3PY7</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -353,7 +353,7 @@
     <t>MITD LA TOUR KOENIG</t>
   </si>
   <si>
-    <t>https://goo.gl/maps/eH5Wpa9Jvde4a9Ha6</t>
+    <t>https://goo.gl/maps/KHPEeDuZrrKGb6xE6</t>
   </si>
   <si>
     <t>AD</t>
@@ -671,6 +671,9 @@
     <t>Chitrakoot GS</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/ayVcDBbgHqun687TA</t>
+  </si>
+  <si>
     <t>DH</t>
   </si>
   <si>
@@ -743,6 +746,9 @@
     <t>St. Malo Community Centre</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/w8cXzpBmars6GgRa7</t>
+  </si>
+  <si>
     <t>EBA</t>
   </si>
   <si>
@@ -1247,6 +1253,9 @@
     <t>M.I.T.D Training Centre Cote D’Or</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/Zi9ebWoC1JYS11R4A</t>
+  </si>
+  <si>
     <t>HC</t>
   </si>
   <si>
@@ -1334,6 +1343,9 @@
     <t>Lady Lydie Ringadoo GS</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/MCvXvPrdsLfJGbjy9</t>
+  </si>
+  <si>
     <t>HL</t>
   </si>
   <si>
@@ -1466,6 +1478,9 @@
     <t>Mahadeo Ghurburrun GS</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/gT6Fe6mfi6pjkUm8A</t>
+  </si>
+  <si>
     <t>JK</t>
   </si>
   <si>
@@ -1670,6 +1685,9 @@
     <t>Bassoodheb Rosunee GS</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/9zssr7krJQUwudZDA</t>
+  </si>
+  <si>
     <t>KMA</t>
   </si>
   <si>
@@ -1760,6 +1778,9 @@
     <t>Le Jardin Social Welfare Centre</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/RbENaUqGDEpHMCyVA</t>
+  </si>
+  <si>
     <t>LJ</t>
   </si>
   <si>
@@ -1775,6 +1796,9 @@
     <t>Bananes Village Hall</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/VS3QrN8am3HysnXw6</t>
+  </si>
+  <si>
     <t>LM</t>
   </si>
   <si>
@@ -1808,6 +1832,9 @@
     <t>Mare Chicose Village Hall</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/RKBX3cBKj9AYK1iF6</t>
+  </si>
+  <si>
     <t>LP</t>
   </si>
   <si>
@@ -2180,6 +2207,9 @@
     <t>St.Francois D’Assise RCA School</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/WHN1dPbxe5oQHS3AA</t>
+  </si>
+  <si>
     <t>PH</t>
   </si>
   <si>
@@ -2375,6 +2405,9 @@
     <t>Carreau Laliane Multi purpose complex</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/JV1TQic1X4XKUXkp6</t>
+  </si>
+  <si>
     <t>REB</t>
   </si>
   <si>
@@ -2525,6 +2558,9 @@
     <t>Glen Park Municipal Multipurpose Complex</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/5v2xW3b3awVXQUbH7</t>
+  </si>
+  <si>
     <t>SCB</t>
   </si>
   <si>
@@ -2849,6 +2885,9 @@
     <t>GOVT TEACHERS UNION HALL</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/Gzs3rzTZY39YRyU7A</t>
+  </si>
+  <si>
     <t>VN</t>
   </si>
   <si>
@@ -2885,6 +2924,9 @@
     <t>Centre pour Education Specialisee (Colibri)</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/gwbUQbUC3a6Cudc59</t>
+  </si>
+  <si>
     <t>XB</t>
   </si>
   <si>
@@ -2993,6 +3035,9 @@
     <t>Mont Roches Training Centre</t>
   </si>
   <si>
+    <t>https://goo.gl/maps/Tcbj8ckzdVA1v6ZKA</t>
+  </si>
+  <si>
     <t>YD</t>
   </si>
   <si>
@@ -3228,6 +3273,9 @@
   </si>
   <si>
     <t>Batatrand GS</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/ZdjYhaW3AngczcJ26</t>
   </si>
   <si>
     <t>ZFC</t>
@@ -3305,13 +3353,13 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -3580,11 +3628,11 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3610,7 +3658,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="2"/>
@@ -3643,16 +3691,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
         <v>2704.0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3681,16 +3729,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2555.0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3719,16 +3767,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4">
         <v>3376.0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -3757,16 +3805,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="3">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4">
         <v>3754.0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3800,7 +3848,7 @@
       <c r="C7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>5133.0</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -3838,7 +3886,7 @@
       <c r="C8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>2266.0</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3876,7 +3924,7 @@
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>2652.0</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -3914,7 +3962,7 @@
       <c r="C10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>3929.0</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -3952,7 +4000,7 @@
       <c r="C11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>3522.0</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3990,7 +4038,7 @@
       <c r="C12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>2415.0</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -4028,7 +4076,7 @@
       <c r="C13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>2862.0</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -4066,7 +4114,7 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>4344.0</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -4104,7 +4152,7 @@
       <c r="C15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>964.0</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -4142,7 +4190,7 @@
       <c r="C16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>1060.0</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -4174,7 +4222,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4238,7 +4286,7 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>1540.0</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -4276,7 +4324,7 @@
       <c r="C20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>292.0</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -4314,7 +4362,7 @@
       <c r="C21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>1607.0</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -4352,7 +4400,7 @@
       <c r="C22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>3216.0</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -4390,7 +4438,7 @@
       <c r="C23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>4424.0</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -4428,7 +4476,7 @@
       <c r="C24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>5119.0</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -4466,7 +4514,7 @@
       <c r="C25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>2099.0</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -4504,7 +4552,7 @@
       <c r="C26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>4118.0</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -4542,7 +4590,7 @@
       <c r="C27" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>1823.0</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -4574,7 +4622,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4638,7 +4686,7 @@
       <c r="C30" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>196.0</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -4676,7 +4724,7 @@
       <c r="C31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>767.0</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -4714,7 +4762,7 @@
       <c r="C32" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>4303.0</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -4750,9 +4798,9 @@
         <v>173</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="3">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4">
         <v>3962.0</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -4790,7 +4838,7 @@
       <c r="C34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>1590.0</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -4828,7 +4876,7 @@
       <c r="C35" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>1539.0</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -4866,7 +4914,7 @@
       <c r="C36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>5868.0</v>
       </c>
       <c r="E36" s="11" t="s">
@@ -4904,7 +4952,7 @@
       <c r="C37" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>3074.0</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -4942,7 +4990,7 @@
       <c r="C38" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>122.0</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -4980,7 +5028,7 @@
       <c r="C39" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>16.0</v>
       </c>
       <c r="E39" s="11" t="s">
@@ -5018,7 +5066,7 @@
       <c r="C40" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>59.0</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -5056,7 +5104,7 @@
       <c r="C41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>447.0</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -5088,7 +5136,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -5152,7 +5200,7 @@
       <c r="C44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>3323.0</v>
       </c>
       <c r="E44" s="11" t="s">
@@ -5190,7 +5238,7 @@
       <c r="C45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>3541.0</v>
       </c>
       <c r="E45" s="11" t="s">
@@ -5228,7 +5276,7 @@
       <c r="C46" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>3695.0</v>
       </c>
       <c r="E46" s="11" t="s">
@@ -5266,7 +5314,7 @@
       <c r="C47" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <v>3156.0</v>
       </c>
       <c r="E47" s="11" t="s">
@@ -5304,7 +5352,7 @@
       <c r="C48" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>6986.0</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -5342,7 +5390,7 @@
       <c r="C49" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <v>3814.0</v>
       </c>
       <c r="E49" s="11" t="s">
@@ -5380,10 +5428,12 @@
       <c r="C50" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <v>1160.0</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="11" t="s">
+        <v>219</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -5411,16 +5461,16 @@
         <v>8.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="3">
+        <v>221</v>
+      </c>
+      <c r="D51" s="4">
         <v>2280.0</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -5449,16 +5499,16 @@
         <v>9.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="3">
+        <v>224</v>
+      </c>
+      <c r="D52" s="4">
         <v>5385.0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -5487,16 +5537,16 @@
         <v>10.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="3">
+        <v>227</v>
+      </c>
+      <c r="D53" s="4">
         <v>1510.0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -5525,16 +5575,16 @@
         <v>11.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54" s="3">
+        <v>230</v>
+      </c>
+      <c r="D54" s="4">
         <v>3534.0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -5563,16 +5613,16 @@
         <v>12.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="3">
+        <v>233</v>
+      </c>
+      <c r="D55" s="4">
         <v>6934.0</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -5601,16 +5651,16 @@
         <v>13.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="3">
+        <v>236</v>
+      </c>
+      <c r="D56" s="4">
         <v>3600.0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -5638,7 +5688,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -5664,7 +5714,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="2"/>
@@ -5697,16 +5747,16 @@
         <v>1.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="3">
+        <v>240</v>
+      </c>
+      <c r="D59" s="4">
         <v>2324.0</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -5735,15 +5785,17 @@
         <v>2.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" s="3">
+        <v>243</v>
+      </c>
+      <c r="D60" s="4">
         <v>2368.0</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5771,16 +5823,16 @@
         <v>3.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D61" s="3">
+        <v>246</v>
+      </c>
+      <c r="D61" s="4">
         <v>5366.0</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -5809,16 +5861,16 @@
         <v>4.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D62" s="3">
+        <v>249</v>
+      </c>
+      <c r="D62" s="4">
         <v>2097.0</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -5847,16 +5899,16 @@
         <v>5.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="3">
+        <v>252</v>
+      </c>
+      <c r="D63" s="4">
         <v>2591.0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -5885,16 +5937,16 @@
         <v>6.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="3">
+        <v>255</v>
+      </c>
+      <c r="D64" s="4">
         <v>1277.0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -5923,16 +5975,16 @@
         <v>7.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="3">
+        <v>258</v>
+      </c>
+      <c r="D65" s="4">
         <v>1921.0</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -5961,16 +6013,16 @@
         <v>8.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D66" s="3">
+        <v>261</v>
+      </c>
+      <c r="D66" s="4">
         <v>851.0</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -5999,16 +6051,16 @@
         <v>9.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" s="3">
+        <v>264</v>
+      </c>
+      <c r="D67" s="4">
         <v>1836.0</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -6037,16 +6089,16 @@
         <v>10.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D68" s="3">
+        <v>267</v>
+      </c>
+      <c r="D68" s="4">
         <v>4704.0</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -6075,16 +6127,16 @@
         <v>11.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D69" s="3">
+        <v>270</v>
+      </c>
+      <c r="D69" s="4">
         <v>5867.0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -6113,16 +6165,16 @@
         <v>12.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70" s="3">
+        <v>273</v>
+      </c>
+      <c r="D70" s="4">
         <v>1177.0</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -6151,16 +6203,16 @@
         <v>13.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D71" s="3">
+        <v>276</v>
+      </c>
+      <c r="D71" s="4">
         <v>5089.0</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -6189,16 +6241,16 @@
         <v>14.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D72" s="3">
+        <v>279</v>
+      </c>
+      <c r="D72" s="4">
         <v>7820.0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -6227,16 +6279,16 @@
         <v>15.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" s="3">
+        <v>282</v>
+      </c>
+      <c r="D73" s="4">
         <v>7371.0</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -6265,16 +6317,16 @@
         <v>16.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D74" s="3">
+        <v>285</v>
+      </c>
+      <c r="D74" s="4">
         <v>4703.0</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -6303,16 +6355,16 @@
         <v>17.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="3">
+        <v>288</v>
+      </c>
+      <c r="D75" s="4">
         <v>6335.0</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -6341,16 +6393,16 @@
         <v>18.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D76" s="3">
+        <v>291</v>
+      </c>
+      <c r="D76" s="4">
         <v>1418.0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -6378,7 +6430,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -6404,7 +6456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="2"/>
@@ -6437,16 +6489,16 @@
         <v>1.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D79" s="3">
+        <v>295</v>
+      </c>
+      <c r="D79" s="4">
         <v>3999.0</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -6475,16 +6527,16 @@
         <v>2.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" s="3">
+        <v>298</v>
+      </c>
+      <c r="D80" s="4">
         <v>4231.0</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -6513,16 +6565,16 @@
         <v>3.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D81" s="3">
+        <v>301</v>
+      </c>
+      <c r="D81" s="4">
         <v>4200.0</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -6551,16 +6603,16 @@
         <v>4.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D82" s="3">
+        <v>304</v>
+      </c>
+      <c r="D82" s="4">
         <v>3985.0</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -6589,16 +6641,16 @@
         <v>5.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D83" s="3">
+        <v>307</v>
+      </c>
+      <c r="D83" s="4">
         <v>1614.0</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -6627,16 +6679,16 @@
         <v>6.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D84" s="3">
+        <v>310</v>
+      </c>
+      <c r="D84" s="4">
         <v>1425.0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -6665,16 +6717,16 @@
         <v>7.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D85" s="3">
+        <v>313</v>
+      </c>
+      <c r="D85" s="4">
         <v>4632.0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -6703,16 +6755,16 @@
         <v>8.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <v>3766.0</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -6741,16 +6793,16 @@
         <v>9.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <v>4117.0</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -6779,16 +6831,16 @@
         <v>10.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D88" s="3">
+        <v>319</v>
+      </c>
+      <c r="D88" s="4">
         <v>5577.0</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -6817,16 +6869,16 @@
         <v>11.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D89" s="3">
+        <v>322</v>
+      </c>
+      <c r="D89" s="4">
         <v>5078.0</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -6855,16 +6907,16 @@
         <v>12.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90" s="3">
+        <v>325</v>
+      </c>
+      <c r="D90" s="4">
         <v>1181.0</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -6893,16 +6945,16 @@
         <v>13.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D91" s="3">
+        <v>328</v>
+      </c>
+      <c r="D91" s="4">
         <v>1198.0</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -6931,16 +6983,16 @@
         <v>14.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="3">
+        <v>331</v>
+      </c>
+      <c r="D92" s="4">
         <v>1650.0</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -6969,16 +7021,16 @@
         <v>15.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D93" s="3">
+        <v>334</v>
+      </c>
+      <c r="D93" s="4">
         <v>1420.0</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -7007,16 +7059,16 @@
         <v>16.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D94" s="3">
+        <v>337</v>
+      </c>
+      <c r="D94" s="4">
         <v>2679.0</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -7045,16 +7097,16 @@
         <v>17.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D95" s="3">
+        <v>340</v>
+      </c>
+      <c r="D95" s="4">
         <v>3197.0</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -7082,7 +7134,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -7108,7 +7160,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="2"/>
@@ -7141,16 +7193,16 @@
         <v>1.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="4">
         <v>5340.0</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -7179,16 +7231,16 @@
         <v>2.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D99" s="3">
+        <v>346</v>
+      </c>
+      <c r="D99" s="4">
         <v>3219.0</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -7217,16 +7269,16 @@
         <v>3.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D100" s="3">
+        <v>349</v>
+      </c>
+      <c r="D100" s="4">
         <v>4275.0</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -7255,16 +7307,16 @@
         <v>4.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D101" s="3">
+        <v>352</v>
+      </c>
+      <c r="D101" s="4">
         <v>3316.0</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -7293,16 +7345,16 @@
         <v>5.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D102" s="3">
+        <v>355</v>
+      </c>
+      <c r="D102" s="4">
         <v>2442.0</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -7331,16 +7383,16 @@
         <v>6.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D103" s="3">
+        <v>358</v>
+      </c>
+      <c r="D103" s="4">
         <v>2639.0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -7369,16 +7421,16 @@
         <v>7.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D104" s="3">
+        <v>361</v>
+      </c>
+      <c r="D104" s="4">
         <v>869.0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -7407,16 +7459,16 @@
         <v>8.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D105" s="3">
+        <v>364</v>
+      </c>
+      <c r="D105" s="4">
         <v>1695.0</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -7445,16 +7497,16 @@
         <v>9.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D106" s="3">
+        <v>367</v>
+      </c>
+      <c r="D106" s="4">
         <v>1994.0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -7483,16 +7535,16 @@
         <v>10.0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D107" s="3">
+        <v>370</v>
+      </c>
+      <c r="D107" s="4">
         <v>1766.0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -7521,16 +7573,16 @@
         <v>11.0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D108" s="3">
+        <v>373</v>
+      </c>
+      <c r="D108" s="4">
         <v>3382.0</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -7559,16 +7611,16 @@
         <v>12.0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D109" s="3">
+        <v>376</v>
+      </c>
+      <c r="D109" s="4">
         <v>3876.0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -7597,16 +7649,16 @@
         <v>13.0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D110" s="3">
+        <v>379</v>
+      </c>
+      <c r="D110" s="4">
         <v>1426.0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -7635,16 +7687,16 @@
         <v>14.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D111" s="4">
+        <v>451.0</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="D111" s="3">
-        <v>451.0</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>378</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -7673,16 +7725,16 @@
         <v>15.0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D112" s="3">
+        <v>384</v>
+      </c>
+      <c r="D112" s="4">
         <v>1200.0</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -7711,16 +7763,16 @@
         <v>16.0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D113" s="3">
+        <v>387</v>
+      </c>
+      <c r="D113" s="4">
         <v>3358.0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -7749,16 +7801,16 @@
         <v>17.0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D114" s="3">
+        <v>390</v>
+      </c>
+      <c r="D114" s="4">
         <v>2745.0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -7786,7 +7838,7 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -7812,7 +7864,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="2"/>
@@ -7845,16 +7897,16 @@
         <v>1.0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D117" s="3">
+        <v>394</v>
+      </c>
+      <c r="D117" s="4">
         <v>2610.0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -7883,16 +7935,16 @@
         <v>2.0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D118" s="3">
+        <v>397</v>
+      </c>
+      <c r="D118" s="4">
         <v>1175.0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -7921,16 +7973,16 @@
         <v>3.0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D119" s="3">
+        <v>400</v>
+      </c>
+      <c r="D119" s="4">
         <v>1994.0</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -7959,16 +8011,16 @@
         <v>4.0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D120" s="3">
+        <v>403</v>
+      </c>
+      <c r="D120" s="4">
         <v>935.0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -7997,16 +8049,16 @@
         <v>5.0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D121" s="3">
+        <v>406</v>
+      </c>
+      <c r="D121" s="4">
         <v>5370.0</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -8035,16 +8087,16 @@
         <v>6.0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D122" s="3">
+        <v>409</v>
+      </c>
+      <c r="D122" s="4">
         <v>6212.0</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -8073,15 +8125,17 @@
         <v>7.0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D123" s="3">
+        <v>412</v>
+      </c>
+      <c r="D123" s="4">
         <v>452.0</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="11" t="s">
+        <v>413</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -8109,16 +8163,16 @@
         <v>8.0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D124" s="3">
+        <v>415</v>
+      </c>
+      <c r="D124" s="4">
         <v>2554.0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -8147,16 +8201,16 @@
         <v>9.0</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D125" s="3">
+        <v>418</v>
+      </c>
+      <c r="D125" s="4">
         <v>1073.0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -8185,16 +8239,16 @@
         <v>10.0</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="D126" s="3">
+        <v>421</v>
+      </c>
+      <c r="D126" s="4">
         <v>833.0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -8223,16 +8277,16 @@
         <v>11.0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D127" s="3">
+        <v>424</v>
+      </c>
+      <c r="D127" s="4">
         <v>1501.0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -8261,16 +8315,16 @@
         <v>12.0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D128" s="3">
+        <v>427</v>
+      </c>
+      <c r="D128" s="4">
         <v>3699.0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -8299,16 +8353,16 @@
         <v>13.0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D129" s="3">
+        <v>430</v>
+      </c>
+      <c r="D129" s="4">
         <v>1927.0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -8337,16 +8391,16 @@
         <v>14.0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D130" s="3">
+        <v>433</v>
+      </c>
+      <c r="D130" s="4">
         <v>1644.0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -8375,16 +8429,16 @@
         <v>15.0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D131" s="3">
+        <v>436</v>
+      </c>
+      <c r="D131" s="4">
         <v>2886.0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -8413,16 +8467,16 @@
         <v>16.0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D132" s="3">
+        <v>439</v>
+      </c>
+      <c r="D132" s="4">
         <v>1769.0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8451,15 +8505,17 @@
         <v>17.0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D133" s="3">
+        <v>442</v>
+      </c>
+      <c r="D133" s="4">
         <v>2700.0</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="E133" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -8487,16 +8543,16 @@
         <v>18.0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D134" s="3">
+        <v>445</v>
+      </c>
+      <c r="D134" s="4">
         <v>1460.0</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -8525,16 +8581,16 @@
         <v>19.0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D135" s="3">
+        <v>448</v>
+      </c>
+      <c r="D135" s="4">
         <v>2781.0</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -8563,16 +8619,16 @@
         <v>20.0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D136" s="3">
+        <v>451</v>
+      </c>
+      <c r="D136" s="4">
         <v>1693.0</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -8600,7 +8656,7 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -8626,7 +8682,7 @@
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="2"/>
@@ -8659,16 +8715,16 @@
         <v>1.0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D139" s="3">
+        <v>455</v>
+      </c>
+      <c r="D139" s="4">
         <v>1305.0</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -8697,16 +8753,16 @@
         <v>2.0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D140" s="3">
+        <v>458</v>
+      </c>
+      <c r="D140" s="4">
         <v>5028.0</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -8735,16 +8791,16 @@
         <v>3.0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D141" s="3">
+        <v>461</v>
+      </c>
+      <c r="D141" s="4">
         <v>4701.0</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -8773,16 +8829,16 @@
         <v>4.0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D142" s="3">
+        <v>464</v>
+      </c>
+      <c r="D142" s="4">
         <v>1510.0</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -8811,16 +8867,16 @@
         <v>5.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D143" s="3">
+        <v>467</v>
+      </c>
+      <c r="D143" s="4">
         <v>3710.0</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -8849,16 +8905,16 @@
         <v>6.0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="4">
         <v>6337.0</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -8887,16 +8943,16 @@
         <v>7.0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D145" s="3">
+        <v>472</v>
+      </c>
+      <c r="D145" s="4">
         <v>3717.0</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -8925,16 +8981,16 @@
         <v>8.0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D146" s="3">
+        <v>475</v>
+      </c>
+      <c r="D146" s="4">
         <v>2444.0</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -8963,16 +9019,16 @@
         <v>9.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D147" s="3">
+        <v>478</v>
+      </c>
+      <c r="D147" s="4">
         <v>1193.0</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -9001,16 +9057,16 @@
         <v>10.0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D148" s="3">
+        <v>481</v>
+      </c>
+      <c r="D148" s="4">
         <v>1033.0</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -9039,16 +9095,16 @@
         <v>11.0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D149" s="3">
+        <v>484</v>
+      </c>
+      <c r="D149" s="4">
         <v>189.0</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -9077,15 +9133,17 @@
         <v>12.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D150" s="3">
+        <v>487</v>
+      </c>
+      <c r="D150" s="4">
         <v>1722.0</v>
       </c>
-      <c r="E150" s="2"/>
+      <c r="E150" s="11" t="s">
+        <v>488</v>
+      </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -9113,16 +9171,16 @@
         <v>13.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D151" s="3">
+        <v>490</v>
+      </c>
+      <c r="D151" s="4">
         <v>3769.0</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -9151,16 +9209,16 @@
         <v>14.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D152" s="3">
+        <v>493</v>
+      </c>
+      <c r="D152" s="4">
         <v>4506.0</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -9189,16 +9247,16 @@
         <v>15.0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D153" s="3">
+        <v>496</v>
+      </c>
+      <c r="D153" s="4">
         <v>5002.0</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -9227,16 +9285,16 @@
         <v>16.0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D154" s="3">
+        <v>499</v>
+      </c>
+      <c r="D154" s="4">
         <v>2535.0</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -9265,16 +9323,16 @@
         <v>17.0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D155" s="3">
+        <v>502</v>
+      </c>
+      <c r="D155" s="4">
         <v>3359.0</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -9303,16 +9361,16 @@
         <v>18.0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="D156" s="3">
+        <v>505</v>
+      </c>
+      <c r="D156" s="4">
         <v>2689.0</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -9341,16 +9399,16 @@
         <v>19.0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="D157" s="3">
+        <v>508</v>
+      </c>
+      <c r="D157" s="4">
         <v>2039.0</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -9378,7 +9436,7 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="3"/>
+      <c r="D158" s="4"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -9404,7 +9462,7 @@
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="2"/>
@@ -9437,16 +9495,16 @@
         <v>1.0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D160" s="3">
+        <v>512</v>
+      </c>
+      <c r="D160" s="4">
         <v>3294.0</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -9475,16 +9533,16 @@
         <v>2.0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D161" s="3">
+        <v>515</v>
+      </c>
+      <c r="D161" s="4">
         <v>2394.0</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -9513,16 +9571,16 @@
         <v>3.0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D162" s="3">
+        <v>518</v>
+      </c>
+      <c r="D162" s="4">
         <v>2285.0</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -9551,16 +9609,16 @@
         <v>4.0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D163" s="3">
+        <v>521</v>
+      </c>
+      <c r="D163" s="4">
         <v>3314.0</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -9589,16 +9647,16 @@
         <v>5.0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D164" s="3">
+        <v>524</v>
+      </c>
+      <c r="D164" s="4">
         <v>1745.0</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -9627,16 +9685,16 @@
         <v>6.0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D165" s="3">
+        <v>527</v>
+      </c>
+      <c r="D165" s="4">
         <v>3545.0</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -9665,16 +9723,16 @@
         <v>7.0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D166" s="3">
+        <v>530</v>
+      </c>
+      <c r="D166" s="4">
         <v>3405.0</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -9703,16 +9761,16 @@
         <v>8.0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D167" s="3">
+        <v>533</v>
+      </c>
+      <c r="D167" s="4">
         <v>4341.0</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -9741,16 +9799,16 @@
         <v>9.0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D168" s="3">
+        <v>536</v>
+      </c>
+      <c r="D168" s="4">
         <v>2822.0</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -9779,16 +9837,16 @@
         <v>10.0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D169" s="3">
+        <v>539</v>
+      </c>
+      <c r="D169" s="4">
         <v>1399.0</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -9817,16 +9875,16 @@
         <v>11.0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D170" s="3">
+        <v>542</v>
+      </c>
+      <c r="D170" s="4">
         <v>4356.0</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -9855,16 +9913,16 @@
         <v>12.0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D171" s="3">
+        <v>545</v>
+      </c>
+      <c r="D171" s="4">
         <v>2802.0</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -9893,16 +9951,16 @@
         <v>13.0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D172" s="3">
+        <v>54</v>
+      </c>
+      <c r="D172" s="4">
         <v>5030.0</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -9931,16 +9989,16 @@
         <v>14.0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D173" s="3">
+        <v>550</v>
+      </c>
+      <c r="D173" s="4">
         <v>1497.0</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -9969,16 +10027,16 @@
         <v>15.0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D174" s="3">
+        <v>553</v>
+      </c>
+      <c r="D174" s="4">
         <v>1645.0</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -10007,15 +10065,17 @@
         <v>16.0</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D175" s="3">
+        <v>556</v>
+      </c>
+      <c r="D175" s="4">
         <v>3023.0</v>
       </c>
-      <c r="E175" s="2"/>
+      <c r="E175" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
@@ -10043,16 +10103,16 @@
         <v>17.0</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D176" s="3">
+        <v>559</v>
+      </c>
+      <c r="D176" s="4">
         <v>1782.0</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -10081,16 +10141,16 @@
         <v>18.0</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D177" s="3">
+        <v>562</v>
+      </c>
+      <c r="D177" s="4">
         <v>4156.0</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -10118,7 +10178,7 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="3"/>
+      <c r="D178" s="4"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -10144,7 +10204,7 @@
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="2"/>
@@ -10177,16 +10237,16 @@
         <v>1.0</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D180" s="3">
+        <v>566</v>
+      </c>
+      <c r="D180" s="4">
         <v>2528.0</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -10215,16 +10275,16 @@
         <v>2.0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D181" s="3">
+        <v>569</v>
+      </c>
+      <c r="D181" s="4">
         <v>1614.0</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -10253,16 +10313,16 @@
         <v>3.0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D182" s="3">
+        <v>572</v>
+      </c>
+      <c r="D182" s="4">
         <v>1136.0</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -10291,16 +10351,16 @@
         <v>4.0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D183" s="3">
+        <v>575</v>
+      </c>
+      <c r="D183" s="4">
         <v>1426.0</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -10329,16 +10389,16 @@
         <v>5.0</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D184" s="3">
+        <v>578</v>
+      </c>
+      <c r="D184" s="4">
         <v>2146.0</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -10367,16 +10427,16 @@
         <v>6.0</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D185" s="3">
+        <v>581</v>
+      </c>
+      <c r="D185" s="4">
         <v>2422.0</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -10405,16 +10465,16 @@
         <v>7.0</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D186" s="3">
+        <v>584</v>
+      </c>
+      <c r="D186" s="4">
         <v>2038.0</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -10443,15 +10503,17 @@
         <v>8.0</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D187" s="3">
+        <v>587</v>
+      </c>
+      <c r="D187" s="4">
         <v>297.0</v>
       </c>
-      <c r="E187" s="2"/>
+      <c r="E187" s="11" t="s">
+        <v>588</v>
+      </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
@@ -10479,16 +10541,16 @@
         <v>9.0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D188" s="3">
+        <v>590</v>
+      </c>
+      <c r="D188" s="4">
         <v>1188.0</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -10517,15 +10579,17 @@
         <v>10.0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D189" s="3">
+        <v>593</v>
+      </c>
+      <c r="D189" s="4">
         <v>550.0</v>
       </c>
-      <c r="E189" s="2"/>
+      <c r="E189" s="11" t="s">
+        <v>594</v>
+      </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -10553,16 +10617,16 @@
         <v>11.0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D190" s="3">
+        <v>596</v>
+      </c>
+      <c r="D190" s="4">
         <v>3544.0</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -10591,16 +10655,16 @@
         <v>12.0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D191" s="3">
+        <v>599</v>
+      </c>
+      <c r="D191" s="4">
         <v>1509.0</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -10629,16 +10693,16 @@
         <v>13.0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D192" s="3">
+        <v>602</v>
+      </c>
+      <c r="D192" s="4">
         <v>3583.0</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -10667,15 +10731,17 @@
         <v>14.0</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D193" s="3">
+        <v>605</v>
+      </c>
+      <c r="D193" s="4">
         <v>162.0</v>
       </c>
-      <c r="E193" s="2"/>
+      <c r="E193" s="11" t="s">
+        <v>606</v>
+      </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
@@ -10703,16 +10769,16 @@
         <v>15.0</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D194" s="3">
+        <v>608</v>
+      </c>
+      <c r="D194" s="4">
         <v>3821.0</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -10741,16 +10807,16 @@
         <v>16.0</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D195" s="3">
+        <v>611</v>
+      </c>
+      <c r="D195" s="4">
         <v>2749.0</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -10779,16 +10845,16 @@
         <v>17.0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D196" s="3">
+        <v>614</v>
+      </c>
+      <c r="D196" s="4">
         <v>3098.0</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -10817,16 +10883,16 @@
         <v>18.0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D197" s="3">
+        <v>617</v>
+      </c>
+      <c r="D197" s="4">
         <v>2072.0</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -10855,16 +10921,16 @@
         <v>19.0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D198" s="3">
+        <v>620</v>
+      </c>
+      <c r="D198" s="4">
         <v>2125.0</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -10893,16 +10959,16 @@
         <v>20.0</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D199" s="3">
+        <v>623</v>
+      </c>
+      <c r="D199" s="4">
         <v>2577.0</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -10931,16 +10997,16 @@
         <v>21.0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D200" s="3">
+        <v>626</v>
+      </c>
+      <c r="D200" s="4">
         <v>3239.0</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -10968,7 +11034,7 @@
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="3"/>
+      <c r="D201" s="4"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -10994,7 +11060,7 @@
     </row>
     <row r="202">
       <c r="A202" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="2"/>
@@ -11027,16 +11093,16 @@
         <v>1.0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D203" s="3">
+        <v>629</v>
+      </c>
+      <c r="D203" s="4">
         <v>1080.0</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -11065,16 +11131,16 @@
         <v>2.0</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D204" s="3">
+        <v>632</v>
+      </c>
+      <c r="D204" s="4">
         <v>1336.0</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -11103,16 +11169,16 @@
         <v>3.0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D205" s="3">
+        <v>635</v>
+      </c>
+      <c r="D205" s="4">
         <v>4007.0</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -11141,16 +11207,16 @@
         <v>4.0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D206" s="3">
+        <v>638</v>
+      </c>
+      <c r="D206" s="4">
         <v>2947.0</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -11179,16 +11245,16 @@
         <v>5.0</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D207" s="3">
+        <v>641</v>
+      </c>
+      <c r="D207" s="4">
         <v>2981.0</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -11217,16 +11283,16 @@
         <v>6.0</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D208" s="3">
+        <v>644</v>
+      </c>
+      <c r="D208" s="4">
         <v>1704.0</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -11255,16 +11321,16 @@
         <v>7.0</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D209" s="3">
+        <v>647</v>
+      </c>
+      <c r="D209" s="4">
         <v>5052.0</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -11293,16 +11359,16 @@
         <v>8.0</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="D210" s="3">
+        <v>650</v>
+      </c>
+      <c r="D210" s="4">
         <v>2364.0</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -11331,16 +11397,16 @@
         <v>9.0</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D211" s="3">
+        <v>653</v>
+      </c>
+      <c r="D211" s="4">
         <v>5710.0</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -11369,16 +11435,16 @@
         <v>10.0</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D212" s="3">
+        <v>656</v>
+      </c>
+      <c r="D212" s="4">
         <v>4219.0</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -11407,16 +11473,16 @@
         <v>11.0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D213" s="3">
+        <v>659</v>
+      </c>
+      <c r="D213" s="4">
         <v>1647.0</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -11445,16 +11511,16 @@
         <v>12.0</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D214" s="3">
+        <v>662</v>
+      </c>
+      <c r="D214" s="4">
         <v>3948.0</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -11483,16 +11549,16 @@
         <v>13.0</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D215" s="3">
+        <v>665</v>
+      </c>
+      <c r="D215" s="4">
         <v>2279.0</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -11520,7 +11586,7 @@
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="3"/>
+      <c r="D216" s="4"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -11546,7 +11612,7 @@
     </row>
     <row r="217">
       <c r="A217" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="2"/>
@@ -11579,16 +11645,16 @@
         <v>1.0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D218" s="3">
+        <v>669</v>
+      </c>
+      <c r="D218" s="4">
         <v>3777.0</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -11617,16 +11683,16 @@
         <v>2.0</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D219" s="3">
+        <v>672</v>
+      </c>
+      <c r="D219" s="4">
         <v>1004.0</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -11655,16 +11721,16 @@
         <v>3.0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D220" s="3">
+        <v>675</v>
+      </c>
+      <c r="D220" s="4">
         <v>3638.0</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -11693,16 +11759,16 @@
         <v>4.0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D221" s="3">
+        <v>678</v>
+      </c>
+      <c r="D221" s="4">
         <v>3830.0</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -11731,16 +11797,16 @@
         <v>5.0</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>672</v>
-      </c>
-      <c r="D222" s="3">
+        <v>681</v>
+      </c>
+      <c r="D222" s="4">
         <v>2746.0</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -11769,16 +11835,16 @@
         <v>6.0</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D223" s="3">
+        <v>684</v>
+      </c>
+      <c r="D223" s="4">
         <v>2369.0</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -11807,16 +11873,16 @@
         <v>7.0</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D224" s="3">
+        <v>687</v>
+      </c>
+      <c r="D224" s="4">
         <v>3565.0</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -11845,16 +11911,16 @@
         <v>8.0</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D225" s="3">
+        <v>690</v>
+      </c>
+      <c r="D225" s="4">
         <v>1727.0</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -11883,16 +11949,16 @@
         <v>9.0</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D226" s="3">
+        <v>693</v>
+      </c>
+      <c r="D226" s="4">
         <v>1109.0</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -11921,16 +11987,16 @@
         <v>10.0</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D227" s="3">
+        <v>696</v>
+      </c>
+      <c r="D227" s="4">
         <v>3867.0</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -11959,16 +12025,16 @@
         <v>11.0</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D228" s="3">
+        <v>699</v>
+      </c>
+      <c r="D228" s="4">
         <v>1498.0</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -11997,16 +12063,16 @@
         <v>12.0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D229" s="3">
+        <v>702</v>
+      </c>
+      <c r="D229" s="4">
         <v>2828.0</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -12035,16 +12101,16 @@
         <v>13.0</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D230" s="3">
+        <v>705</v>
+      </c>
+      <c r="D230" s="4">
         <v>3339.0</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -12072,7 +12138,7 @@
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="3"/>
+      <c r="D231" s="4"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -12098,7 +12164,7 @@
     </row>
     <row r="232">
       <c r="A232" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B232" s="9"/>
       <c r="C232" s="2"/>
@@ -12131,16 +12197,16 @@
         <v>1.0</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D233" s="3">
+        <v>709</v>
+      </c>
+      <c r="D233" s="4">
         <v>3500.0</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -12169,16 +12235,16 @@
         <v>2.0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D234" s="3">
+        <v>712</v>
+      </c>
+      <c r="D234" s="4">
         <v>4318.0</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -12207,16 +12273,16 @@
         <v>3.0</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D235" s="3">
+        <v>715</v>
+      </c>
+      <c r="D235" s="4">
         <v>3707.0</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -12245,16 +12311,16 @@
         <v>4.0</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D236" s="3">
+        <v>718</v>
+      </c>
+      <c r="D236" s="4">
         <v>3289.0</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -12283,16 +12349,16 @@
         <v>5.0</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D237" s="3">
+        <v>721</v>
+      </c>
+      <c r="D237" s="4">
         <v>3052.0</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -12321,16 +12387,16 @@
         <v>6.0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D238" s="3">
+        <v>724</v>
+      </c>
+      <c r="D238" s="4">
         <v>2873.0</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -12359,16 +12425,16 @@
         <v>7.0</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D239" s="3">
+        <v>727</v>
+      </c>
+      <c r="D239" s="4">
         <v>1652.0</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -12397,15 +12463,17 @@
         <v>8.0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D240" s="3">
+        <v>730</v>
+      </c>
+      <c r="D240" s="4">
         <v>1840.0</v>
       </c>
-      <c r="E240" s="2"/>
+      <c r="E240" s="11" t="s">
+        <v>731</v>
+      </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
@@ -12433,16 +12501,16 @@
         <v>9.0</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D241" s="3">
+        <v>733</v>
+      </c>
+      <c r="D241" s="4">
         <v>916.0</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -12471,16 +12539,16 @@
         <v>10.0</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D242" s="3">
+        <v>736</v>
+      </c>
+      <c r="D242" s="4">
         <v>574.0</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -12509,16 +12577,16 @@
         <v>11.0</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="D243" s="3">
+        <v>739</v>
+      </c>
+      <c r="D243" s="4">
         <v>1801.0</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -12547,16 +12615,16 @@
         <v>12.0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D244" s="3">
+        <v>742</v>
+      </c>
+      <c r="D244" s="4">
         <v>1103.0</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -12585,16 +12653,16 @@
         <v>13.0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D245" s="3">
+        <v>745</v>
+      </c>
+      <c r="D245" s="4">
         <v>1682.0</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -12623,16 +12691,16 @@
         <v>14.0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D246" s="3">
+        <v>748</v>
+      </c>
+      <c r="D246" s="4">
         <v>2778.0</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -12661,16 +12729,16 @@
         <v>15.0</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D247" s="3">
+        <v>751</v>
+      </c>
+      <c r="D247" s="4">
         <v>1446.0</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -12699,16 +12767,16 @@
         <v>16.0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D248" s="3">
+        <v>754</v>
+      </c>
+      <c r="D248" s="4">
         <v>1933.0</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -12737,16 +12805,16 @@
         <v>17.0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D249" s="3">
+        <v>74</v>
+      </c>
+      <c r="D249" s="4">
         <v>2585.0</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -12775,16 +12843,16 @@
         <v>18.0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D250" s="3">
+        <v>759</v>
+      </c>
+      <c r="D250" s="4">
         <v>4335.0</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -12813,16 +12881,16 @@
         <v>19.0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="D251" s="3">
+        <v>762</v>
+      </c>
+      <c r="D251" s="4">
         <v>3874.0</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -12851,16 +12919,16 @@
         <v>20.0</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D252" s="3">
+        <v>765</v>
+      </c>
+      <c r="D252" s="4">
         <v>3726.0</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -12889,16 +12957,16 @@
         <v>21.0</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="D253" s="3">
+        <v>768</v>
+      </c>
+      <c r="D253" s="4">
         <v>8576.0</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -12927,16 +12995,16 @@
         <v>22.0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D254" s="3">
+        <v>771</v>
+      </c>
+      <c r="D254" s="4">
         <v>3940.0</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -12964,7 +13032,7 @@
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="3"/>
+      <c r="D255" s="4"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -12990,7 +13058,7 @@
     </row>
     <row r="256">
       <c r="A256" s="7" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="2"/>
@@ -13023,16 +13091,16 @@
         <v>1.0</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D257" s="3">
+        <v>775</v>
+      </c>
+      <c r="D257" s="4">
         <v>3027.0</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -13061,16 +13129,16 @@
         <v>2.0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="D258" s="3">
+        <v>778</v>
+      </c>
+      <c r="D258" s="4">
         <v>3137.0</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -13099,16 +13167,16 @@
         <v>3.0</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="D259" s="3">
+        <v>781</v>
+      </c>
+      <c r="D259" s="4">
         <v>5662.0</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -13137,16 +13205,16 @@
         <v>4.0</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D260" s="3">
+        <v>784</v>
+      </c>
+      <c r="D260" s="4">
         <v>5062.0</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -13175,16 +13243,16 @@
         <v>5.0</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="D261" s="3">
+        <v>787</v>
+      </c>
+      <c r="D261" s="4">
         <v>2042.0</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -13213,16 +13281,16 @@
         <v>6.0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D262" s="3">
+        <v>790</v>
+      </c>
+      <c r="D262" s="4">
         <v>1538.0</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -13251,16 +13319,16 @@
         <v>7.0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="D263" s="3">
+        <v>793</v>
+      </c>
+      <c r="D263" s="4">
         <v>2781.0</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -13289,15 +13357,17 @@
         <v>8.0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="D264" s="3">
+        <v>796</v>
+      </c>
+      <c r="D264" s="4">
         <v>2660.0</v>
       </c>
-      <c r="E264" s="2"/>
+      <c r="E264" s="11" t="s">
+        <v>797</v>
+      </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
@@ -13325,15 +13395,17 @@
         <v>9.0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D265" s="3">
+        <v>799</v>
+      </c>
+      <c r="D265" s="4">
         <v>1412.0</v>
       </c>
-      <c r="E265" s="2"/>
+      <c r="E265" s="11" t="s">
+        <v>797</v>
+      </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
@@ -13361,16 +13433,16 @@
         <v>10.0</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D266" s="3">
+        <v>801</v>
+      </c>
+      <c r="D266" s="4">
         <v>1851.0</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -13399,16 +13471,16 @@
         <v>11.0</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="D267" s="3">
+        <v>804</v>
+      </c>
+      <c r="D267" s="4">
         <v>3243.0</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -13437,16 +13509,16 @@
         <v>12.0</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="D268" s="3">
+        <v>807</v>
+      </c>
+      <c r="D268" s="4">
         <v>2668.0</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -13475,16 +13547,16 @@
         <v>13.0</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="D269" s="3">
+        <v>810</v>
+      </c>
+      <c r="D269" s="4">
         <v>5981.0</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -13513,16 +13585,16 @@
         <v>14.0</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D270" s="3">
+        <v>813</v>
+      </c>
+      <c r="D270" s="4">
         <v>1588.0</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -13551,16 +13623,16 @@
         <v>15.0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="D271" s="3">
+        <v>816</v>
+      </c>
+      <c r="D271" s="4">
         <v>294.0</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -13589,16 +13661,16 @@
         <v>16.0</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="D272" s="3">
+        <v>819</v>
+      </c>
+      <c r="D272" s="4">
         <v>1256.0</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -13627,16 +13699,16 @@
         <v>17.0</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D273" s="3">
+        <v>822</v>
+      </c>
+      <c r="D273" s="4">
         <v>5226.0</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -13665,16 +13737,16 @@
         <v>18.0</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D274" s="3">
+        <v>825</v>
+      </c>
+      <c r="D274" s="4">
         <v>738.0</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -13703,16 +13775,16 @@
         <v>19.0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D275" s="3">
+        <v>828</v>
+      </c>
+      <c r="D275" s="4">
         <v>550.0</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -13741,16 +13813,16 @@
         <v>20.0</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D276" s="3">
+        <v>831</v>
+      </c>
+      <c r="D276" s="4">
         <v>5320.0</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -13779,16 +13851,16 @@
         <v>21.0</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D277" s="3">
+        <v>834</v>
+      </c>
+      <c r="D277" s="4">
         <v>1220.0</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -13816,7 +13888,7 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
-      <c r="D278" s="3"/>
+      <c r="D278" s="4"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -13842,7 +13914,7 @@
     </row>
     <row r="279">
       <c r="A279" s="7" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="B279" s="9"/>
       <c r="C279" s="2"/>
@@ -13875,16 +13947,16 @@
         <v>1.0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>827</v>
-      </c>
-      <c r="D280" s="3">
+        <v>838</v>
+      </c>
+      <c r="D280" s="4">
         <v>3584.0</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -13913,16 +13985,16 @@
         <v>2.0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D281" s="3">
+        <v>841</v>
+      </c>
+      <c r="D281" s="4">
         <v>5586.0</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -13951,16 +14023,16 @@
         <v>3.0</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D282" s="3">
+        <v>844</v>
+      </c>
+      <c r="D282" s="4">
         <v>4584.0</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -13989,15 +14061,17 @@
         <v>4.0</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D283" s="3">
+        <v>847</v>
+      </c>
+      <c r="D283" s="4">
         <v>1309.0</v>
       </c>
-      <c r="E283" s="14"/>
+      <c r="E283" s="11" t="s">
+        <v>848</v>
+      </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
@@ -14025,16 +14099,16 @@
         <v>5.0</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D284" s="3">
+        <v>850</v>
+      </c>
+      <c r="D284" s="4">
         <v>1996.0</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -14063,16 +14137,16 @@
         <v>6.0</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="D285" s="3">
+        <v>853</v>
+      </c>
+      <c r="D285" s="4">
         <v>1557.0</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -14101,16 +14175,16 @@
         <v>7.0</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D286" s="3">
+        <v>856</v>
+      </c>
+      <c r="D286" s="4">
         <v>4216.0</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -14139,16 +14213,16 @@
         <v>8.0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D287" s="3">
+        <v>859</v>
+      </c>
+      <c r="D287" s="4">
         <v>3318.0</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -14177,16 +14251,16 @@
         <v>9.0</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="D288" s="3">
+        <v>862</v>
+      </c>
+      <c r="D288" s="4">
         <v>3602.0</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -14215,16 +14289,16 @@
         <v>10.0</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D289" s="3">
+        <v>865</v>
+      </c>
+      <c r="D289" s="4">
         <v>935.0</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -14253,16 +14327,16 @@
         <v>11.0</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="D290" s="3">
+        <v>868</v>
+      </c>
+      <c r="D290" s="4">
         <v>3656.0</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -14291,16 +14365,16 @@
         <v>12.0</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D291" s="3">
+        <v>871</v>
+      </c>
+      <c r="D291" s="4">
         <v>2986.0</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -14329,16 +14403,16 @@
         <v>13.0</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D292" s="3">
+        <v>874</v>
+      </c>
+      <c r="D292" s="4">
         <v>3634.0</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -14367,16 +14441,16 @@
         <v>14.0</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="D293" s="3">
+        <v>877</v>
+      </c>
+      <c r="D293" s="4">
         <v>1465.0</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -14405,16 +14479,16 @@
         <v>15.0</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="D294" s="3">
+        <v>880</v>
+      </c>
+      <c r="D294" s="4">
         <v>1925.0</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -14443,16 +14517,16 @@
         <v>16.0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="D295" s="3">
+        <v>882</v>
+      </c>
+      <c r="D295" s="4">
         <v>613.0</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -14480,7 +14554,7 @@
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
-      <c r="D296" s="3"/>
+      <c r="D296" s="4"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -14506,7 +14580,7 @@
     </row>
     <row r="297">
       <c r="A297" s="7" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="B297" s="9"/>
       <c r="C297" s="2"/>
@@ -14539,16 +14613,16 @@
         <v>1.0</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D298" s="3">
+        <v>886</v>
+      </c>
+      <c r="D298" s="4">
         <v>4365.0</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -14577,16 +14651,16 @@
         <v>2.0</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D299" s="3">
+        <v>889</v>
+      </c>
+      <c r="D299" s="4">
         <v>3129.0</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -14615,16 +14689,16 @@
         <v>3.0</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="D300" s="3">
+        <v>892</v>
+      </c>
+      <c r="D300" s="4">
         <v>4771.0</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -14653,16 +14727,16 @@
         <v>4.0</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="D301" s="3">
+        <v>895</v>
+      </c>
+      <c r="D301" s="4">
         <v>2335.0</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -14691,16 +14765,16 @@
         <v>5.0</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="D302" s="3">
+        <v>898</v>
+      </c>
+      <c r="D302" s="4">
         <v>3965.0</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -14729,16 +14803,16 @@
         <v>6.0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D303" s="3">
+        <v>901</v>
+      </c>
+      <c r="D303" s="4">
         <v>3837.0</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -14767,16 +14841,16 @@
         <v>7.0</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D304" s="3">
+        <v>904</v>
+      </c>
+      <c r="D304" s="4">
         <v>1044.0</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -14805,16 +14879,16 @@
         <v>8.0</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="D305" s="3">
+        <v>907</v>
+      </c>
+      <c r="D305" s="4">
         <v>4448.0</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -14843,16 +14917,16 @@
         <v>9.0</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D306" s="3">
+        <v>87</v>
+      </c>
+      <c r="D306" s="4">
         <v>6213.0</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -14881,16 +14955,16 @@
         <v>10.0</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D307" s="3">
+        <v>912</v>
+      </c>
+      <c r="D307" s="4">
         <v>5334.0</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -14919,16 +14993,16 @@
         <v>11.0</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D308" s="3">
+        <v>915</v>
+      </c>
+      <c r="D308" s="4">
         <v>779.0</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -14957,16 +15031,16 @@
         <v>12.0</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="D309" s="3">
+        <v>918</v>
+      </c>
+      <c r="D309" s="4">
         <v>1875.0</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
@@ -14995,16 +15069,16 @@
         <v>13.0</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D310" s="3">
+        <v>921</v>
+      </c>
+      <c r="D310" s="4">
         <v>2138.0</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -15033,16 +15107,16 @@
         <v>14.0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="D311" s="3">
+        <v>924</v>
+      </c>
+      <c r="D311" s="4">
         <v>2027.0</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -15070,7 +15144,7 @@
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
-      <c r="D312" s="3"/>
+      <c r="D312" s="4"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
@@ -15096,7 +15170,7 @@
     </row>
     <row r="313">
       <c r="A313" s="7" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="B313" s="9"/>
       <c r="C313" s="2"/>
@@ -15129,16 +15203,16 @@
         <v>1.0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="D314" s="3">
+        <v>928</v>
+      </c>
+      <c r="D314" s="4">
         <v>3415.0</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -15167,16 +15241,16 @@
         <v>2.0</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="D315" s="3">
+        <v>931</v>
+      </c>
+      <c r="D315" s="4">
         <v>3647.0</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
@@ -15205,16 +15279,16 @@
         <v>3.0</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="D316" s="3">
+        <v>934</v>
+      </c>
+      <c r="D316" s="4">
         <v>2266.0</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
@@ -15243,16 +15317,16 @@
         <v>4.0</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="D317" s="3">
+        <v>937</v>
+      </c>
+      <c r="D317" s="4">
         <v>3910.0</v>
       </c>
       <c r="E317" s="15" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -15281,16 +15355,16 @@
         <v>5.0</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="D318" s="3">
+        <v>940</v>
+      </c>
+      <c r="D318" s="4">
         <v>4322.0</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
@@ -15319,16 +15393,16 @@
         <v>6.0</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="D319" s="3">
+        <v>943</v>
+      </c>
+      <c r="D319" s="4">
         <v>5385.0</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -15357,16 +15431,16 @@
         <v>7.0</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="D320" s="3">
+        <v>946</v>
+      </c>
+      <c r="D320" s="4">
         <v>3423.0</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -15395,16 +15469,16 @@
         <v>8.0</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="D321" s="3">
+        <v>949</v>
+      </c>
+      <c r="D321" s="4">
         <v>3205.0</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -15433,16 +15507,16 @@
         <v>9.0</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="D322" s="3">
+        <v>952</v>
+      </c>
+      <c r="D322" s="4">
         <v>8225.0</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -15471,16 +15545,16 @@
         <v>10.0</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="D323" s="3">
+        <v>954</v>
+      </c>
+      <c r="D323" s="4">
         <v>1411.0</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -15509,15 +15583,17 @@
         <v>11.0</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="D324" s="3">
+        <v>956</v>
+      </c>
+      <c r="D324" s="4">
         <v>1446.0</v>
       </c>
-      <c r="E324" s="2"/>
+      <c r="E324" s="11" t="s">
+        <v>957</v>
+      </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
@@ -15545,16 +15621,16 @@
         <v>12.0</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="D325" s="3">
+        <v>959</v>
+      </c>
+      <c r="D325" s="4">
         <v>1447.0</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -15583,16 +15659,16 @@
         <v>13.0</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="D326" s="3">
+        <v>962</v>
+      </c>
+      <c r="D326" s="4">
         <v>1321.0</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -15620,7 +15696,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
-      <c r="D327" s="3"/>
+      <c r="D327" s="4"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -15646,7 +15722,7 @@
     </row>
     <row r="328">
       <c r="A328" s="7" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="B328" s="9"/>
       <c r="C328" s="2"/>
@@ -15679,16 +15755,16 @@
         <v>1.0</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D329" s="3">
+        <v>966</v>
+      </c>
+      <c r="D329" s="4">
         <v>5693.0</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -15717,15 +15793,17 @@
         <v>2.0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="D330" s="3">
+        <v>969</v>
+      </c>
+      <c r="D330" s="4">
         <v>1698.0</v>
       </c>
-      <c r="E330" s="2"/>
+      <c r="E330" s="11" t="s">
+        <v>970</v>
+      </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
@@ -15753,16 +15831,16 @@
         <v>3.0</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="D331" s="3">
+        <v>972</v>
+      </c>
+      <c r="D331" s="4">
         <v>4495.0</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -15791,16 +15869,16 @@
         <v>4.0</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="D332" s="3">
+        <v>975</v>
+      </c>
+      <c r="D332" s="4">
         <v>4829.0</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -15829,16 +15907,16 @@
         <v>5.0</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="D333" s="3">
+        <v>978</v>
+      </c>
+      <c r="D333" s="4">
         <v>2471.0</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -15867,16 +15945,16 @@
         <v>6.0</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="D334" s="3">
+        <v>981</v>
+      </c>
+      <c r="D334" s="4">
         <v>2011.0</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
@@ -15905,16 +15983,16 @@
         <v>7.0</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>969</v>
+        <v>983</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D335" s="3">
+        <v>984</v>
+      </c>
+      <c r="D335" s="4">
         <v>2670.0</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>971</v>
+        <v>985</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
@@ -15943,16 +16021,16 @@
         <v>8.0</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>972</v>
+        <v>986</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="D336" s="3">
+        <v>987</v>
+      </c>
+      <c r="D336" s="4">
         <v>2568.0</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>974</v>
+        <v>988</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
@@ -15981,16 +16059,16 @@
         <v>9.0</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="D337" s="3">
+        <v>990</v>
+      </c>
+      <c r="D337" s="4">
         <v>4597.0</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
@@ -16019,16 +16097,16 @@
         <v>10.0</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="D338" s="3">
+        <v>993</v>
+      </c>
+      <c r="D338" s="4">
         <v>4071.0</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
@@ -16057,16 +16135,16 @@
         <v>11.0</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="D339" s="3">
+        <v>996</v>
+      </c>
+      <c r="D339" s="4">
         <v>3330.0</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
@@ -16094,7 +16172,7 @@
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
-      <c r="D340" s="3"/>
+      <c r="D340" s="4"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
@@ -16120,7 +16198,7 @@
     </row>
     <row r="341">
       <c r="A341" s="7" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="B341" s="9"/>
       <c r="C341" s="2"/>
@@ -16153,16 +16231,16 @@
         <v>1.0</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="D342" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D342" s="4">
         <v>3343.0</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -16191,16 +16269,16 @@
         <v>2.0</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="D343" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D343" s="4">
         <v>1918.0</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -16229,15 +16307,17 @@
         <v>3.0</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="D344" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D344" s="4">
         <v>4399.0</v>
       </c>
-      <c r="E344" s="2"/>
+      <c r="E344" s="11" t="s">
+        <v>1007</v>
+      </c>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
@@ -16265,16 +16345,16 @@
         <v>4.0</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="D345" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D345" s="4">
         <v>3535.0</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -16303,16 +16383,16 @@
         <v>5.0</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D346" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D346" s="4">
         <v>3160.0</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -16341,16 +16421,16 @@
         <v>6.0</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D347" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D347" s="4">
         <v>4963.0</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -16379,16 +16459,16 @@
         <v>7.0</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D348" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D348" s="4">
         <v>3379.0</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -16417,16 +16497,16 @@
         <v>8.0</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D349" s="3">
+        <v>1021</v>
+      </c>
+      <c r="D349" s="4">
         <v>4255.0</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -16455,16 +16535,16 @@
         <v>9.0</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D350" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D350" s="4">
         <v>5219.0</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -16493,16 +16573,16 @@
         <v>10.0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D351" s="3">
+        <v>1027</v>
+      </c>
+      <c r="D351" s="4">
         <v>3606.0</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -16531,16 +16611,16 @@
         <v>11.0</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D352" s="3">
+        <v>1030</v>
+      </c>
+      <c r="D352" s="4">
         <v>2539.0</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -16569,16 +16649,16 @@
         <v>12.0</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D353" s="3">
+        <v>1033</v>
+      </c>
+      <c r="D353" s="4">
         <v>3905.0</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -16607,16 +16687,16 @@
         <v>13.0</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D354" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D354" s="4">
         <v>283.0</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -16644,7 +16724,7 @@
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
-      <c r="D355" s="3"/>
+      <c r="D355" s="4"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -16670,7 +16750,7 @@
     </row>
     <row r="356">
       <c r="A356" s="7" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="B356" s="9"/>
       <c r="C356" s="2"/>
@@ -16703,16 +16783,16 @@
         <v>1.0</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D357" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D357" s="4">
         <v>2107.0</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -16741,16 +16821,16 @@
         <v>2.0</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D358" s="3">
+        <v>886</v>
+      </c>
+      <c r="D358" s="4">
         <v>3077.0</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -16779,16 +16859,16 @@
         <v>3.0</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D359" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D359" s="4">
         <v>2439.0</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -16817,16 +16897,16 @@
         <v>4.0</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D360" s="3">
+        <v>1048</v>
+      </c>
+      <c r="D360" s="4">
         <v>1332.0</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -16855,16 +16935,16 @@
         <v>5.0</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D361" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D361" s="4">
         <v>531.0</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
@@ -16893,16 +16973,16 @@
         <v>6.0</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1038</v>
+        <v>1053</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D362" s="3">
+        <v>1054</v>
+      </c>
+      <c r="D362" s="4">
         <v>1575.0</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
@@ -16931,16 +17011,16 @@
         <v>7.0</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D363" s="3">
+        <v>1057</v>
+      </c>
+      <c r="D363" s="4">
         <v>1666.0</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
@@ -16969,16 +17049,16 @@
         <v>8.0</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D364" s="3">
+        <v>1060</v>
+      </c>
+      <c r="D364" s="4">
         <v>2452.0</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
@@ -17007,16 +17087,16 @@
         <v>9.0</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D365" s="3">
+        <v>1063</v>
+      </c>
+      <c r="D365" s="4">
         <v>3045.0</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
@@ -17045,16 +17125,16 @@
         <v>10.0</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D366" s="3">
+        <v>1066</v>
+      </c>
+      <c r="D366" s="4">
         <v>453.0</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
@@ -17083,16 +17163,16 @@
         <v>11.0</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D367" s="3">
+        <v>1069</v>
+      </c>
+      <c r="D367" s="4">
         <v>941.0</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -17121,16 +17201,16 @@
         <v>12.0</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D368" s="3">
+        <v>106</v>
+      </c>
+      <c r="D368" s="4">
         <v>2402.0</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -17159,16 +17239,16 @@
         <v>13.0</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D369" s="3">
+        <v>1074</v>
+      </c>
+      <c r="D369" s="4">
         <v>1557.0</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -17197,16 +17277,16 @@
         <v>14.0</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D370" s="3">
+        <v>1077</v>
+      </c>
+      <c r="D370" s="4">
         <v>1809.0</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -17235,16 +17315,16 @@
         <v>15.0</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D371" s="3">
+        <v>1080</v>
+      </c>
+      <c r="D371" s="4">
         <v>439.0</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
@@ -17273,16 +17353,16 @@
         <v>16.0</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D372" s="3">
+        <v>1083</v>
+      </c>
+      <c r="D372" s="4">
         <v>1827.0</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
@@ -17311,15 +17391,17 @@
         <v>17.0</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D373" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D373" s="4">
         <v>1144.0</v>
       </c>
-      <c r="E373" s="2"/>
+      <c r="E373" s="11" t="s">
+        <v>1087</v>
+      </c>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
@@ -17347,16 +17429,16 @@
         <v>18.0</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D374" s="3">
+        <v>1089</v>
+      </c>
+      <c r="D374" s="4">
         <v>1603.0</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -32179,282 +32261,299 @@
     <hyperlink r:id="rId39" ref="E47"/>
     <hyperlink r:id="rId40" ref="E48"/>
     <hyperlink r:id="rId41" ref="E49"/>
-    <hyperlink r:id="rId42" ref="E51"/>
-    <hyperlink r:id="rId43" ref="E52"/>
-    <hyperlink r:id="rId44" ref="E53"/>
-    <hyperlink r:id="rId45" ref="E54"/>
-    <hyperlink r:id="rId46" ref="E55"/>
-    <hyperlink r:id="rId47" ref="E56"/>
-    <hyperlink r:id="rId48" ref="E59"/>
-    <hyperlink r:id="rId49" ref="E61"/>
-    <hyperlink r:id="rId50" ref="E62"/>
-    <hyperlink r:id="rId51" ref="E63"/>
-    <hyperlink r:id="rId52" ref="E64"/>
-    <hyperlink r:id="rId53" ref="E65"/>
-    <hyperlink r:id="rId54" ref="E66"/>
-    <hyperlink r:id="rId55" ref="E67"/>
-    <hyperlink r:id="rId56" ref="E68"/>
-    <hyperlink r:id="rId57" ref="E69"/>
-    <hyperlink r:id="rId58" ref="E70"/>
-    <hyperlink r:id="rId59" ref="E71"/>
-    <hyperlink r:id="rId60" ref="E72"/>
-    <hyperlink r:id="rId61" ref="E73"/>
-    <hyperlink r:id="rId62" ref="E74"/>
-    <hyperlink r:id="rId63" ref="E75"/>
-    <hyperlink r:id="rId64" ref="E76"/>
-    <hyperlink r:id="rId65" ref="E79"/>
-    <hyperlink r:id="rId66" ref="E80"/>
-    <hyperlink r:id="rId67" ref="E81"/>
-    <hyperlink r:id="rId68" ref="E82"/>
-    <hyperlink r:id="rId69" ref="E83"/>
-    <hyperlink r:id="rId70" ref="E84"/>
-    <hyperlink r:id="rId71" ref="E85"/>
-    <hyperlink r:id="rId72" ref="E86"/>
-    <hyperlink r:id="rId73" ref="E87"/>
-    <hyperlink r:id="rId74" ref="E88"/>
-    <hyperlink r:id="rId75" ref="E89"/>
-    <hyperlink r:id="rId76" ref="E90"/>
-    <hyperlink r:id="rId77" ref="E91"/>
-    <hyperlink r:id="rId78" ref="E92"/>
-    <hyperlink r:id="rId79" ref="E93"/>
-    <hyperlink r:id="rId80" ref="E94"/>
-    <hyperlink r:id="rId81" ref="E95"/>
-    <hyperlink r:id="rId82" ref="E98"/>
-    <hyperlink r:id="rId83" ref="E99"/>
-    <hyperlink r:id="rId84" ref="E100"/>
-    <hyperlink r:id="rId85" ref="E101"/>
-    <hyperlink r:id="rId86" ref="E102"/>
-    <hyperlink r:id="rId87" ref="E103"/>
-    <hyperlink r:id="rId88" ref="E104"/>
-    <hyperlink r:id="rId89" ref="E105"/>
-    <hyperlink r:id="rId90" ref="E106"/>
-    <hyperlink r:id="rId91" ref="E107"/>
-    <hyperlink r:id="rId92" ref="E108"/>
-    <hyperlink r:id="rId93" ref="E109"/>
-    <hyperlink r:id="rId94" ref="E110"/>
-    <hyperlink r:id="rId95" ref="E111"/>
-    <hyperlink r:id="rId96" ref="E112"/>
-    <hyperlink r:id="rId97" ref="E113"/>
-    <hyperlink r:id="rId98" ref="E114"/>
-    <hyperlink r:id="rId99" ref="E117"/>
-    <hyperlink r:id="rId100" ref="E118"/>
-    <hyperlink r:id="rId101" ref="E119"/>
-    <hyperlink r:id="rId102" ref="E120"/>
-    <hyperlink r:id="rId103" ref="E121"/>
-    <hyperlink r:id="rId104" ref="E122"/>
-    <hyperlink r:id="rId105" ref="E124"/>
-    <hyperlink r:id="rId106" ref="E125"/>
-    <hyperlink r:id="rId107" ref="E126"/>
-    <hyperlink r:id="rId108" ref="E127"/>
-    <hyperlink r:id="rId109" ref="E128"/>
-    <hyperlink r:id="rId110" ref="E129"/>
-    <hyperlink r:id="rId111" ref="E130"/>
-    <hyperlink r:id="rId112" ref="E131"/>
-    <hyperlink r:id="rId113" ref="E132"/>
-    <hyperlink r:id="rId114" ref="E134"/>
-    <hyperlink r:id="rId115" ref="E135"/>
-    <hyperlink r:id="rId116" ref="E136"/>
-    <hyperlink r:id="rId117" ref="E139"/>
-    <hyperlink r:id="rId118" ref="E140"/>
-    <hyperlink r:id="rId119" ref="E141"/>
-    <hyperlink r:id="rId120" ref="E142"/>
-    <hyperlink r:id="rId121" ref="E143"/>
-    <hyperlink r:id="rId122" ref="E144"/>
-    <hyperlink r:id="rId123" ref="E145"/>
-    <hyperlink r:id="rId124" ref="E146"/>
-    <hyperlink r:id="rId125" ref="E147"/>
-    <hyperlink r:id="rId126" ref="E148"/>
-    <hyperlink r:id="rId127" ref="E149"/>
-    <hyperlink r:id="rId128" ref="E151"/>
-    <hyperlink r:id="rId129" ref="E152"/>
-    <hyperlink r:id="rId130" ref="E153"/>
-    <hyperlink r:id="rId131" ref="E154"/>
-    <hyperlink r:id="rId132" ref="E155"/>
-    <hyperlink r:id="rId133" ref="E156"/>
-    <hyperlink r:id="rId134" ref="E157"/>
-    <hyperlink r:id="rId135" ref="E160"/>
-    <hyperlink r:id="rId136" ref="E161"/>
-    <hyperlink r:id="rId137" ref="E162"/>
-    <hyperlink r:id="rId138" ref="E163"/>
-    <hyperlink r:id="rId139" ref="E164"/>
-    <hyperlink r:id="rId140" ref="E165"/>
-    <hyperlink r:id="rId141" ref="E166"/>
-    <hyperlink r:id="rId142" ref="E167"/>
-    <hyperlink r:id="rId143" ref="E168"/>
-    <hyperlink r:id="rId144" ref="E169"/>
-    <hyperlink r:id="rId145" ref="E170"/>
-    <hyperlink r:id="rId146" ref="E171"/>
-    <hyperlink r:id="rId147" ref="E172"/>
-    <hyperlink r:id="rId148" ref="E173"/>
-    <hyperlink r:id="rId149" ref="E174"/>
-    <hyperlink r:id="rId150" ref="E176"/>
-    <hyperlink r:id="rId151" ref="E177"/>
-    <hyperlink r:id="rId152" ref="E180"/>
-    <hyperlink r:id="rId153" ref="E181"/>
-    <hyperlink r:id="rId154" ref="E182"/>
-    <hyperlink r:id="rId155" ref="E183"/>
-    <hyperlink r:id="rId156" ref="E184"/>
-    <hyperlink r:id="rId157" ref="E185"/>
-    <hyperlink r:id="rId158" ref="E186"/>
-    <hyperlink r:id="rId159" ref="E188"/>
-    <hyperlink r:id="rId160" ref="E190"/>
-    <hyperlink r:id="rId161" ref="E191"/>
-    <hyperlink r:id="rId162" ref="E192"/>
-    <hyperlink r:id="rId163" ref="E194"/>
-    <hyperlink r:id="rId164" ref="E195"/>
-    <hyperlink r:id="rId165" ref="E196"/>
-    <hyperlink r:id="rId166" ref="E197"/>
-    <hyperlink r:id="rId167" ref="E198"/>
-    <hyperlink r:id="rId168" ref="E199"/>
-    <hyperlink r:id="rId169" ref="E200"/>
-    <hyperlink r:id="rId170" ref="E203"/>
-    <hyperlink r:id="rId171" ref="E204"/>
-    <hyperlink r:id="rId172" ref="E205"/>
-    <hyperlink r:id="rId173" ref="E206"/>
-    <hyperlink r:id="rId174" ref="E207"/>
-    <hyperlink r:id="rId175" ref="E208"/>
-    <hyperlink r:id="rId176" ref="E209"/>
-    <hyperlink r:id="rId177" ref="E210"/>
-    <hyperlink r:id="rId178" ref="E211"/>
-    <hyperlink r:id="rId179" ref="E212"/>
-    <hyperlink r:id="rId180" ref="E213"/>
-    <hyperlink r:id="rId181" ref="E214"/>
-    <hyperlink r:id="rId182" ref="E215"/>
-    <hyperlink r:id="rId183" ref="E218"/>
-    <hyperlink r:id="rId184" ref="E219"/>
-    <hyperlink r:id="rId185" ref="E220"/>
-    <hyperlink r:id="rId186" ref="E221"/>
-    <hyperlink r:id="rId187" ref="E222"/>
-    <hyperlink r:id="rId188" ref="E223"/>
-    <hyperlink r:id="rId189" ref="E224"/>
-    <hyperlink r:id="rId190" ref="E225"/>
-    <hyperlink r:id="rId191" ref="E226"/>
-    <hyperlink r:id="rId192" ref="E227"/>
-    <hyperlink r:id="rId193" ref="E228"/>
-    <hyperlink r:id="rId194" ref="E229"/>
-    <hyperlink r:id="rId195" ref="E230"/>
-    <hyperlink r:id="rId196" ref="E233"/>
-    <hyperlink r:id="rId197" ref="E234"/>
-    <hyperlink r:id="rId198" ref="E235"/>
-    <hyperlink r:id="rId199" ref="E236"/>
-    <hyperlink r:id="rId200" ref="E237"/>
-    <hyperlink r:id="rId201" ref="E238"/>
-    <hyperlink r:id="rId202" ref="E239"/>
-    <hyperlink r:id="rId203" ref="E241"/>
-    <hyperlink r:id="rId204" ref="E242"/>
-    <hyperlink r:id="rId205" ref="E243"/>
-    <hyperlink r:id="rId206" ref="E244"/>
-    <hyperlink r:id="rId207" ref="E245"/>
-    <hyperlink r:id="rId208" ref="E246"/>
-    <hyperlink r:id="rId209" ref="E247"/>
-    <hyperlink r:id="rId210" ref="E248"/>
-    <hyperlink r:id="rId211" ref="E249"/>
-    <hyperlink r:id="rId212" ref="E250"/>
-    <hyperlink r:id="rId213" ref="E251"/>
-    <hyperlink r:id="rId214" ref="E252"/>
-    <hyperlink r:id="rId215" ref="E253"/>
-    <hyperlink r:id="rId216" ref="E254"/>
-    <hyperlink r:id="rId217" ref="E257"/>
-    <hyperlink r:id="rId218" ref="E258"/>
-    <hyperlink r:id="rId219" ref="E259"/>
-    <hyperlink r:id="rId220" ref="E260"/>
-    <hyperlink r:id="rId221" ref="E261"/>
-    <hyperlink r:id="rId222" ref="E262"/>
-    <hyperlink r:id="rId223" ref="E263"/>
-    <hyperlink r:id="rId224" ref="E266"/>
-    <hyperlink r:id="rId225" ref="E267"/>
-    <hyperlink r:id="rId226" ref="E268"/>
-    <hyperlink r:id="rId227" ref="E269"/>
-    <hyperlink r:id="rId228" ref="E270"/>
-    <hyperlink r:id="rId229" ref="E271"/>
-    <hyperlink r:id="rId230" ref="E272"/>
-    <hyperlink r:id="rId231" ref="E273"/>
-    <hyperlink r:id="rId232" ref="E274"/>
-    <hyperlink r:id="rId233" ref="E275"/>
-    <hyperlink r:id="rId234" ref="E276"/>
-    <hyperlink r:id="rId235" ref="E277"/>
-    <hyperlink r:id="rId236" ref="E280"/>
-    <hyperlink r:id="rId237" ref="E281"/>
-    <hyperlink r:id="rId238" ref="E282"/>
-    <hyperlink r:id="rId239" ref="E284"/>
-    <hyperlink r:id="rId240" ref="E285"/>
-    <hyperlink r:id="rId241" ref="E286"/>
-    <hyperlink r:id="rId242" ref="E287"/>
-    <hyperlink r:id="rId243" ref="E288"/>
-    <hyperlink r:id="rId244" ref="E289"/>
-    <hyperlink r:id="rId245" ref="E290"/>
-    <hyperlink r:id="rId246" ref="E291"/>
-    <hyperlink r:id="rId247" ref="E292"/>
-    <hyperlink r:id="rId248" ref="E293"/>
-    <hyperlink r:id="rId249" ref="E294"/>
-    <hyperlink r:id="rId250" ref="E295"/>
-    <hyperlink r:id="rId251" ref="E298"/>
-    <hyperlink r:id="rId252" ref="E299"/>
-    <hyperlink r:id="rId253" ref="E300"/>
-    <hyperlink r:id="rId254" ref="E301"/>
-    <hyperlink r:id="rId255" ref="E302"/>
-    <hyperlink r:id="rId256" ref="E303"/>
-    <hyperlink r:id="rId257" ref="E304"/>
-    <hyperlink r:id="rId258" ref="E305"/>
-    <hyperlink r:id="rId259" ref="E306"/>
-    <hyperlink r:id="rId260" ref="E307"/>
-    <hyperlink r:id="rId261" ref="E308"/>
-    <hyperlink r:id="rId262" ref="E309"/>
-    <hyperlink r:id="rId263" ref="E310"/>
-    <hyperlink r:id="rId264" ref="E311"/>
-    <hyperlink r:id="rId265" ref="E314"/>
-    <hyperlink r:id="rId266" ref="E315"/>
-    <hyperlink r:id="rId267" ref="E316"/>
-    <hyperlink r:id="rId268" ref="E317"/>
-    <hyperlink r:id="rId269" ref="E318"/>
-    <hyperlink r:id="rId270" ref="E319"/>
-    <hyperlink r:id="rId271" ref="E320"/>
-    <hyperlink r:id="rId272" ref="E321"/>
-    <hyperlink r:id="rId273" ref="E322"/>
-    <hyperlink r:id="rId274" ref="E323"/>
-    <hyperlink r:id="rId275" ref="E325"/>
-    <hyperlink r:id="rId276" ref="E326"/>
-    <hyperlink r:id="rId277" ref="E329"/>
-    <hyperlink r:id="rId278" ref="E331"/>
-    <hyperlink r:id="rId279" ref="E332"/>
-    <hyperlink r:id="rId280" ref="E333"/>
-    <hyperlink r:id="rId281" ref="E334"/>
-    <hyperlink r:id="rId282" ref="E335"/>
-    <hyperlink r:id="rId283" ref="E336"/>
-    <hyperlink r:id="rId284" ref="E337"/>
-    <hyperlink r:id="rId285" ref="E338"/>
-    <hyperlink r:id="rId286" ref="E339"/>
-    <hyperlink r:id="rId287" ref="E342"/>
-    <hyperlink r:id="rId288" ref="E343"/>
-    <hyperlink r:id="rId289" ref="E345"/>
-    <hyperlink r:id="rId290" ref="E346"/>
-    <hyperlink r:id="rId291" ref="E347"/>
-    <hyperlink r:id="rId292" ref="E348"/>
-    <hyperlink r:id="rId293" ref="E349"/>
-    <hyperlink r:id="rId294" ref="E350"/>
-    <hyperlink r:id="rId295" ref="E351"/>
-    <hyperlink r:id="rId296" ref="E352"/>
-    <hyperlink r:id="rId297" ref="E353"/>
-    <hyperlink r:id="rId298" ref="E354"/>
-    <hyperlink r:id="rId299" ref="E357"/>
-    <hyperlink r:id="rId300" ref="E358"/>
-    <hyperlink r:id="rId301" ref="E359"/>
-    <hyperlink r:id="rId302" ref="E360"/>
-    <hyperlink r:id="rId303" ref="E361"/>
-    <hyperlink r:id="rId304" ref="E362"/>
-    <hyperlink r:id="rId305" ref="E363"/>
-    <hyperlink r:id="rId306" ref="E364"/>
-    <hyperlink r:id="rId307" ref="E365"/>
-    <hyperlink r:id="rId308" ref="E366"/>
-    <hyperlink r:id="rId309" ref="E367"/>
-    <hyperlink r:id="rId310" ref="E368"/>
-    <hyperlink r:id="rId311" ref="E369"/>
-    <hyperlink r:id="rId312" ref="E370"/>
-    <hyperlink r:id="rId313" ref="E371"/>
-    <hyperlink r:id="rId314" ref="E372"/>
-    <hyperlink r:id="rId315" ref="E374"/>
+    <hyperlink r:id="rId42" ref="E50"/>
+    <hyperlink r:id="rId43" ref="E51"/>
+    <hyperlink r:id="rId44" ref="E52"/>
+    <hyperlink r:id="rId45" ref="E53"/>
+    <hyperlink r:id="rId46" ref="E54"/>
+    <hyperlink r:id="rId47" ref="E55"/>
+    <hyperlink r:id="rId48" ref="E56"/>
+    <hyperlink r:id="rId49" ref="E59"/>
+    <hyperlink r:id="rId50" ref="E60"/>
+    <hyperlink r:id="rId51" ref="E61"/>
+    <hyperlink r:id="rId52" ref="E62"/>
+    <hyperlink r:id="rId53" ref="E63"/>
+    <hyperlink r:id="rId54" ref="E64"/>
+    <hyperlink r:id="rId55" ref="E65"/>
+    <hyperlink r:id="rId56" ref="E66"/>
+    <hyperlink r:id="rId57" ref="E67"/>
+    <hyperlink r:id="rId58" ref="E68"/>
+    <hyperlink r:id="rId59" ref="E69"/>
+    <hyperlink r:id="rId60" ref="E70"/>
+    <hyperlink r:id="rId61" ref="E71"/>
+    <hyperlink r:id="rId62" ref="E72"/>
+    <hyperlink r:id="rId63" ref="E73"/>
+    <hyperlink r:id="rId64" ref="E74"/>
+    <hyperlink r:id="rId65" ref="E75"/>
+    <hyperlink r:id="rId66" ref="E76"/>
+    <hyperlink r:id="rId67" ref="E79"/>
+    <hyperlink r:id="rId68" ref="E80"/>
+    <hyperlink r:id="rId69" ref="E81"/>
+    <hyperlink r:id="rId70" ref="E82"/>
+    <hyperlink r:id="rId71" ref="E83"/>
+    <hyperlink r:id="rId72" ref="E84"/>
+    <hyperlink r:id="rId73" ref="E85"/>
+    <hyperlink r:id="rId74" ref="E86"/>
+    <hyperlink r:id="rId75" ref="E87"/>
+    <hyperlink r:id="rId76" ref="E88"/>
+    <hyperlink r:id="rId77" ref="E89"/>
+    <hyperlink r:id="rId78" ref="E90"/>
+    <hyperlink r:id="rId79" ref="E91"/>
+    <hyperlink r:id="rId80" ref="E92"/>
+    <hyperlink r:id="rId81" ref="E93"/>
+    <hyperlink r:id="rId82" ref="E94"/>
+    <hyperlink r:id="rId83" ref="E95"/>
+    <hyperlink r:id="rId84" ref="E98"/>
+    <hyperlink r:id="rId85" ref="E99"/>
+    <hyperlink r:id="rId86" ref="E100"/>
+    <hyperlink r:id="rId87" ref="E101"/>
+    <hyperlink r:id="rId88" ref="E102"/>
+    <hyperlink r:id="rId89" ref="E103"/>
+    <hyperlink r:id="rId90" ref="E104"/>
+    <hyperlink r:id="rId91" ref="E105"/>
+    <hyperlink r:id="rId92" ref="E106"/>
+    <hyperlink r:id="rId93" ref="E107"/>
+    <hyperlink r:id="rId94" ref="E108"/>
+    <hyperlink r:id="rId95" ref="E109"/>
+    <hyperlink r:id="rId96" ref="E110"/>
+    <hyperlink r:id="rId97" ref="E111"/>
+    <hyperlink r:id="rId98" ref="E112"/>
+    <hyperlink r:id="rId99" ref="E113"/>
+    <hyperlink r:id="rId100" ref="E114"/>
+    <hyperlink r:id="rId101" ref="E117"/>
+    <hyperlink r:id="rId102" ref="E118"/>
+    <hyperlink r:id="rId103" ref="E119"/>
+    <hyperlink r:id="rId104" ref="E120"/>
+    <hyperlink r:id="rId105" ref="E121"/>
+    <hyperlink r:id="rId106" ref="E122"/>
+    <hyperlink r:id="rId107" ref="E123"/>
+    <hyperlink r:id="rId108" ref="E124"/>
+    <hyperlink r:id="rId109" ref="E125"/>
+    <hyperlink r:id="rId110" ref="E126"/>
+    <hyperlink r:id="rId111" ref="E127"/>
+    <hyperlink r:id="rId112" ref="E128"/>
+    <hyperlink r:id="rId113" ref="E129"/>
+    <hyperlink r:id="rId114" ref="E130"/>
+    <hyperlink r:id="rId115" ref="E131"/>
+    <hyperlink r:id="rId116" ref="E132"/>
+    <hyperlink r:id="rId117" ref="E133"/>
+    <hyperlink r:id="rId118" ref="E134"/>
+    <hyperlink r:id="rId119" ref="E135"/>
+    <hyperlink r:id="rId120" ref="E136"/>
+    <hyperlink r:id="rId121" ref="E139"/>
+    <hyperlink r:id="rId122" ref="E140"/>
+    <hyperlink r:id="rId123" ref="E141"/>
+    <hyperlink r:id="rId124" ref="E142"/>
+    <hyperlink r:id="rId125" ref="E143"/>
+    <hyperlink r:id="rId126" ref="E144"/>
+    <hyperlink r:id="rId127" ref="E145"/>
+    <hyperlink r:id="rId128" ref="E146"/>
+    <hyperlink r:id="rId129" ref="E147"/>
+    <hyperlink r:id="rId130" ref="E148"/>
+    <hyperlink r:id="rId131" ref="E149"/>
+    <hyperlink r:id="rId132" ref="E150"/>
+    <hyperlink r:id="rId133" ref="E151"/>
+    <hyperlink r:id="rId134" ref="E152"/>
+    <hyperlink r:id="rId135" ref="E153"/>
+    <hyperlink r:id="rId136" ref="E154"/>
+    <hyperlink r:id="rId137" ref="E155"/>
+    <hyperlink r:id="rId138" ref="E156"/>
+    <hyperlink r:id="rId139" ref="E157"/>
+    <hyperlink r:id="rId140" ref="E160"/>
+    <hyperlink r:id="rId141" ref="E161"/>
+    <hyperlink r:id="rId142" ref="E162"/>
+    <hyperlink r:id="rId143" ref="E163"/>
+    <hyperlink r:id="rId144" ref="E164"/>
+    <hyperlink r:id="rId145" ref="E165"/>
+    <hyperlink r:id="rId146" ref="E166"/>
+    <hyperlink r:id="rId147" ref="E167"/>
+    <hyperlink r:id="rId148" ref="E168"/>
+    <hyperlink r:id="rId149" ref="E169"/>
+    <hyperlink r:id="rId150" ref="E170"/>
+    <hyperlink r:id="rId151" ref="E171"/>
+    <hyperlink r:id="rId152" ref="E172"/>
+    <hyperlink r:id="rId153" ref="E173"/>
+    <hyperlink r:id="rId154" ref="E174"/>
+    <hyperlink r:id="rId155" ref="E175"/>
+    <hyperlink r:id="rId156" ref="E176"/>
+    <hyperlink r:id="rId157" ref="E177"/>
+    <hyperlink r:id="rId158" ref="E180"/>
+    <hyperlink r:id="rId159" ref="E181"/>
+    <hyperlink r:id="rId160" ref="E182"/>
+    <hyperlink r:id="rId161" ref="E183"/>
+    <hyperlink r:id="rId162" ref="E184"/>
+    <hyperlink r:id="rId163" ref="E185"/>
+    <hyperlink r:id="rId164" ref="E186"/>
+    <hyperlink r:id="rId165" ref="E187"/>
+    <hyperlink r:id="rId166" ref="E188"/>
+    <hyperlink r:id="rId167" ref="E189"/>
+    <hyperlink r:id="rId168" ref="E190"/>
+    <hyperlink r:id="rId169" ref="E191"/>
+    <hyperlink r:id="rId170" ref="E192"/>
+    <hyperlink r:id="rId171" ref="E193"/>
+    <hyperlink r:id="rId172" ref="E194"/>
+    <hyperlink r:id="rId173" ref="E195"/>
+    <hyperlink r:id="rId174" ref="E196"/>
+    <hyperlink r:id="rId175" ref="E197"/>
+    <hyperlink r:id="rId176" ref="E198"/>
+    <hyperlink r:id="rId177" ref="E199"/>
+    <hyperlink r:id="rId178" ref="E200"/>
+    <hyperlink r:id="rId179" ref="E203"/>
+    <hyperlink r:id="rId180" ref="E204"/>
+    <hyperlink r:id="rId181" ref="E205"/>
+    <hyperlink r:id="rId182" ref="E206"/>
+    <hyperlink r:id="rId183" ref="E207"/>
+    <hyperlink r:id="rId184" ref="E208"/>
+    <hyperlink r:id="rId185" ref="E209"/>
+    <hyperlink r:id="rId186" ref="E210"/>
+    <hyperlink r:id="rId187" ref="E211"/>
+    <hyperlink r:id="rId188" ref="E212"/>
+    <hyperlink r:id="rId189" ref="E213"/>
+    <hyperlink r:id="rId190" ref="E214"/>
+    <hyperlink r:id="rId191" ref="E215"/>
+    <hyperlink r:id="rId192" ref="E218"/>
+    <hyperlink r:id="rId193" ref="E219"/>
+    <hyperlink r:id="rId194" ref="E220"/>
+    <hyperlink r:id="rId195" ref="E221"/>
+    <hyperlink r:id="rId196" ref="E222"/>
+    <hyperlink r:id="rId197" ref="E223"/>
+    <hyperlink r:id="rId198" ref="E224"/>
+    <hyperlink r:id="rId199" ref="E225"/>
+    <hyperlink r:id="rId200" ref="E226"/>
+    <hyperlink r:id="rId201" ref="E227"/>
+    <hyperlink r:id="rId202" ref="E228"/>
+    <hyperlink r:id="rId203" ref="E229"/>
+    <hyperlink r:id="rId204" ref="E230"/>
+    <hyperlink r:id="rId205" ref="E233"/>
+    <hyperlink r:id="rId206" ref="E234"/>
+    <hyperlink r:id="rId207" ref="E235"/>
+    <hyperlink r:id="rId208" ref="E236"/>
+    <hyperlink r:id="rId209" ref="E237"/>
+    <hyperlink r:id="rId210" ref="E238"/>
+    <hyperlink r:id="rId211" ref="E239"/>
+    <hyperlink r:id="rId212" ref="E240"/>
+    <hyperlink r:id="rId213" ref="E241"/>
+    <hyperlink r:id="rId214" ref="E242"/>
+    <hyperlink r:id="rId215" ref="E243"/>
+    <hyperlink r:id="rId216" ref="E244"/>
+    <hyperlink r:id="rId217" ref="E245"/>
+    <hyperlink r:id="rId218" ref="E246"/>
+    <hyperlink r:id="rId219" ref="E247"/>
+    <hyperlink r:id="rId220" ref="E248"/>
+    <hyperlink r:id="rId221" ref="E249"/>
+    <hyperlink r:id="rId222" ref="E250"/>
+    <hyperlink r:id="rId223" ref="E251"/>
+    <hyperlink r:id="rId224" ref="E252"/>
+    <hyperlink r:id="rId225" ref="E253"/>
+    <hyperlink r:id="rId226" ref="E254"/>
+    <hyperlink r:id="rId227" ref="E257"/>
+    <hyperlink r:id="rId228" ref="E258"/>
+    <hyperlink r:id="rId229" ref="E259"/>
+    <hyperlink r:id="rId230" ref="E260"/>
+    <hyperlink r:id="rId231" ref="E261"/>
+    <hyperlink r:id="rId232" ref="E262"/>
+    <hyperlink r:id="rId233" ref="E263"/>
+    <hyperlink r:id="rId234" ref="E264"/>
+    <hyperlink r:id="rId235" ref="E265"/>
+    <hyperlink r:id="rId236" ref="E266"/>
+    <hyperlink r:id="rId237" ref="E267"/>
+    <hyperlink r:id="rId238" ref="E268"/>
+    <hyperlink r:id="rId239" ref="E269"/>
+    <hyperlink r:id="rId240" ref="E270"/>
+    <hyperlink r:id="rId241" ref="E271"/>
+    <hyperlink r:id="rId242" ref="E272"/>
+    <hyperlink r:id="rId243" ref="E273"/>
+    <hyperlink r:id="rId244" ref="E274"/>
+    <hyperlink r:id="rId245" ref="E275"/>
+    <hyperlink r:id="rId246" ref="E276"/>
+    <hyperlink r:id="rId247" ref="E277"/>
+    <hyperlink r:id="rId248" ref="E280"/>
+    <hyperlink r:id="rId249" ref="E281"/>
+    <hyperlink r:id="rId250" ref="E282"/>
+    <hyperlink r:id="rId251" ref="E283"/>
+    <hyperlink r:id="rId252" ref="E284"/>
+    <hyperlink r:id="rId253" ref="E285"/>
+    <hyperlink r:id="rId254" ref="E286"/>
+    <hyperlink r:id="rId255" ref="E287"/>
+    <hyperlink r:id="rId256" ref="E288"/>
+    <hyperlink r:id="rId257" ref="E289"/>
+    <hyperlink r:id="rId258" ref="E290"/>
+    <hyperlink r:id="rId259" ref="E291"/>
+    <hyperlink r:id="rId260" ref="E292"/>
+    <hyperlink r:id="rId261" ref="E293"/>
+    <hyperlink r:id="rId262" ref="E294"/>
+    <hyperlink r:id="rId263" ref="E295"/>
+    <hyperlink r:id="rId264" ref="E298"/>
+    <hyperlink r:id="rId265" ref="E299"/>
+    <hyperlink r:id="rId266" ref="E300"/>
+    <hyperlink r:id="rId267" ref="E301"/>
+    <hyperlink r:id="rId268" ref="E302"/>
+    <hyperlink r:id="rId269" ref="E303"/>
+    <hyperlink r:id="rId270" ref="E304"/>
+    <hyperlink r:id="rId271" ref="E305"/>
+    <hyperlink r:id="rId272" ref="E306"/>
+    <hyperlink r:id="rId273" ref="E307"/>
+    <hyperlink r:id="rId274" ref="E308"/>
+    <hyperlink r:id="rId275" ref="E309"/>
+    <hyperlink r:id="rId276" ref="E310"/>
+    <hyperlink r:id="rId277" ref="E311"/>
+    <hyperlink r:id="rId278" ref="E314"/>
+    <hyperlink r:id="rId279" ref="E315"/>
+    <hyperlink r:id="rId280" ref="E316"/>
+    <hyperlink r:id="rId281" ref="E317"/>
+    <hyperlink r:id="rId282" ref="E318"/>
+    <hyperlink r:id="rId283" ref="E319"/>
+    <hyperlink r:id="rId284" ref="E320"/>
+    <hyperlink r:id="rId285" ref="E321"/>
+    <hyperlink r:id="rId286" ref="E322"/>
+    <hyperlink r:id="rId287" ref="E323"/>
+    <hyperlink r:id="rId288" ref="E324"/>
+    <hyperlink r:id="rId289" ref="E325"/>
+    <hyperlink r:id="rId290" ref="E326"/>
+    <hyperlink r:id="rId291" ref="E329"/>
+    <hyperlink r:id="rId292" ref="E330"/>
+    <hyperlink r:id="rId293" ref="E331"/>
+    <hyperlink r:id="rId294" ref="E332"/>
+    <hyperlink r:id="rId295" ref="E333"/>
+    <hyperlink r:id="rId296" ref="E334"/>
+    <hyperlink r:id="rId297" ref="E335"/>
+    <hyperlink r:id="rId298" ref="E336"/>
+    <hyperlink r:id="rId299" ref="E337"/>
+    <hyperlink r:id="rId300" ref="E338"/>
+    <hyperlink r:id="rId301" ref="E339"/>
+    <hyperlink r:id="rId302" ref="E342"/>
+    <hyperlink r:id="rId303" ref="E343"/>
+    <hyperlink r:id="rId304" ref="E344"/>
+    <hyperlink r:id="rId305" ref="E345"/>
+    <hyperlink r:id="rId306" ref="E346"/>
+    <hyperlink r:id="rId307" ref="E347"/>
+    <hyperlink r:id="rId308" ref="E348"/>
+    <hyperlink r:id="rId309" ref="E349"/>
+    <hyperlink r:id="rId310" ref="E350"/>
+    <hyperlink r:id="rId311" ref="E351"/>
+    <hyperlink r:id="rId312" ref="E352"/>
+    <hyperlink r:id="rId313" ref="E353"/>
+    <hyperlink r:id="rId314" ref="E354"/>
+    <hyperlink r:id="rId315" ref="E357"/>
+    <hyperlink r:id="rId316" ref="E358"/>
+    <hyperlink r:id="rId317" ref="E359"/>
+    <hyperlink r:id="rId318" ref="E360"/>
+    <hyperlink r:id="rId319" ref="E361"/>
+    <hyperlink r:id="rId320" ref="E362"/>
+    <hyperlink r:id="rId321" ref="E363"/>
+    <hyperlink r:id="rId322" ref="E364"/>
+    <hyperlink r:id="rId323" ref="E365"/>
+    <hyperlink r:id="rId324" ref="E366"/>
+    <hyperlink r:id="rId325" ref="E367"/>
+    <hyperlink r:id="rId326" ref="E368"/>
+    <hyperlink r:id="rId327" ref="E369"/>
+    <hyperlink r:id="rId328" ref="E370"/>
+    <hyperlink r:id="rId329" ref="E371"/>
+    <hyperlink r:id="rId330" ref="E372"/>
+    <hyperlink r:id="rId331" ref="E373"/>
+    <hyperlink r:id="rId332" ref="E374"/>
   </hyperlinks>
-  <drawing r:id="rId316"/>
+  <drawing r:id="rId333"/>
 </worksheet>
 </file>
 
@@ -32486,14 +32585,14 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -32506,7 +32605,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>14.0</v>
       </c>
       <c r="E2" s="10">
@@ -32526,47 +32625,47 @@
       <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>9.0</v>
       </c>
       <c r="E3" s="10">
         <v>24238.0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
         <v>12.0</v>
       </c>
       <c r="E4" s="10">
         <v>21943.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>13.0</v>
       </c>
       <c r="E5" s="10">
@@ -32586,7 +32685,7 @@
       <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>18.0</v>
       </c>
       <c r="E6" s="10">
@@ -32606,7 +32705,7 @@
       <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>17.0</v>
       </c>
       <c r="E7" s="10">
@@ -32626,7 +32725,7 @@
       <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>17.0</v>
       </c>
       <c r="E8" s="10">
@@ -32646,7 +32745,7 @@
       <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>20.0</v>
       </c>
       <c r="E9" s="10">
@@ -32666,7 +32765,7 @@
       <c r="C10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>19.0</v>
       </c>
       <c r="E10" s="10">
@@ -32684,9 +32783,9 @@
         <v>52</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
         <v>18.0</v>
       </c>
       <c r="E11" s="10">
@@ -32698,15 +32797,15 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>21.0</v>
       </c>
       <c r="E12" s="10">
@@ -32726,7 +32825,7 @@
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>13.0</v>
       </c>
       <c r="E13" s="10">
@@ -32746,7 +32845,7 @@
       <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>13.0</v>
       </c>
       <c r="E14" s="10">
@@ -32758,82 +32857,82 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="5">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3">
         <v>22.0</v>
       </c>
       <c r="E15" s="10">
         <v>63500.0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="5">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3">
         <v>21.0</v>
       </c>
       <c r="E16" s="10">
         <v>57256.0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="5">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3">
         <v>16.0</v>
       </c>
       <c r="E17" s="10">
         <v>44966.0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="5">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3">
         <v>14.0</v>
       </c>
       <c r="E18" s="10">
         <v>46260.0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -32846,7 +32945,7 @@
       <c r="C19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>13.0</v>
       </c>
       <c r="E19" s="10">
@@ -32858,62 +32957,62 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="5">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3">
         <v>11.0</v>
       </c>
       <c r="E20" s="10">
         <v>38433.0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="5">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3">
         <v>13.0</v>
       </c>
       <c r="E21" s="10">
         <v>44504.0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="5">
+        <v>106</v>
+      </c>
+      <c r="D22" s="3">
         <v>18.0</v>
       </c>
       <c r="E22" s="10">
         <v>30399.0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="18.0" customHeight="1">
